--- a/doc/spreadsheets/slow_func.xlsx
+++ b/doc/spreadsheets/slow_func.xlsx
@@ -83,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -136,6 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +426,7 @@
   <dimension ref="A1:G603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +509,7 @@
         <f>TRUNC(B8/$B$1,0)</f>
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <f>TRUNC($B$5/C8,0)</f>
         <v>163840</v>
       </c>
@@ -531,7 +538,7 @@
         <f t="shared" ref="C9:C72" si="1">TRUNC(B9/$B$1,0)</f>
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <f t="shared" ref="D9:D72" si="2">TRUNC($B$5/C9,0)</f>
         <v>136533</v>
       </c>
@@ -560,7 +567,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>117028</v>
       </c>
@@ -589,7 +596,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <f t="shared" si="2"/>
         <v>102400</v>
       </c>
@@ -618,7 +625,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>91022</v>
       </c>
@@ -647,7 +654,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>81920</v>
       </c>
@@ -676,7 +683,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <f t="shared" si="2"/>
         <v>74472</v>
       </c>
@@ -705,7 +712,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>68266</v>
       </c>
@@ -734,7 +741,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>63015</v>
       </c>
@@ -763,7 +770,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>58514</v>
       </c>
@@ -792,7 +799,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <f t="shared" si="2"/>
         <v>54613</v>
       </c>
@@ -821,7 +828,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <f t="shared" si="2"/>
         <v>51200</v>
       </c>
@@ -850,7 +857,7 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <f t="shared" si="2"/>
         <v>48188</v>
       </c>
@@ -879,7 +886,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>45511</v>
       </c>
@@ -908,7 +915,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>43115</v>
       </c>
@@ -937,7 +944,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>40960</v>
       </c>
@@ -966,7 +973,7 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <f t="shared" si="2"/>
         <v>39009</v>
       </c>
@@ -995,7 +1002,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <f t="shared" si="2"/>
         <v>37236</v>
       </c>
@@ -1024,7 +1031,7 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <f t="shared" si="2"/>
         <v>35617</v>
       </c>
@@ -1053,7 +1060,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>34133</v>
       </c>
@@ -1082,7 +1089,7 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>32768</v>
       </c>
@@ -1111,7 +1118,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>31507</v>
       </c>
@@ -1140,7 +1147,7 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>30340</v>
       </c>
@@ -1169,7 +1176,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>29257</v>
       </c>
@@ -1198,7 +1205,7 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <f t="shared" si="2"/>
         <v>28248</v>
       </c>
@@ -1227,7 +1234,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>27306</v>
       </c>
@@ -1256,7 +1263,7 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>26425</v>
       </c>
@@ -1285,7 +1292,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <f t="shared" si="2"/>
         <v>25600</v>
       </c>
@@ -1314,7 +1321,7 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <f t="shared" si="2"/>
         <v>24824</v>
       </c>
@@ -1343,7 +1350,7 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <f t="shared" si="2"/>
         <v>24094</v>
       </c>
@@ -1372,7 +1379,7 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <f t="shared" si="2"/>
         <v>23405</v>
       </c>
@@ -1401,7 +1408,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <f t="shared" si="2"/>
         <v>22755</v>
       </c>
@@ -1430,7 +1437,7 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <f t="shared" si="2"/>
         <v>22140</v>
       </c>
@@ -1459,7 +1466,7 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <f t="shared" si="2"/>
         <v>21557</v>
       </c>
@@ -1488,7 +1495,7 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <f t="shared" si="2"/>
         <v>21005</v>
       </c>
@@ -1517,7 +1524,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="8">
         <f t="shared" si="2"/>
         <v>20480</v>
       </c>
@@ -1546,7 +1553,7 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>19980</v>
       </c>
@@ -1575,7 +1582,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <f t="shared" si="2"/>
         <v>19504</v>
       </c>
@@ -1604,7 +1611,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>19051</v>
       </c>
@@ -1633,7 +1640,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="8">
         <f t="shared" si="2"/>
         <v>18618</v>
       </c>
@@ -1662,7 +1669,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>18204</v>
       </c>
@@ -1691,7 +1698,7 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="8">
         <f t="shared" si="2"/>
         <v>17808</v>
       </c>
@@ -1720,7 +1727,7 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="8">
         <f t="shared" si="2"/>
         <v>17429</v>
       </c>
@@ -1749,7 +1756,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="8">
         <f t="shared" si="2"/>
         <v>17066</v>
       </c>
@@ -1778,7 +1785,7 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>16718</v>
       </c>
@@ -1807,7 +1814,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="8">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
@@ -1836,7 +1843,7 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>16062</v>
       </c>
@@ -1865,7 +1872,7 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="8">
         <f t="shared" si="2"/>
         <v>15753</v>
       </c>
@@ -1894,7 +1901,7 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>15456</v>
       </c>
@@ -1923,7 +1930,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="8">
         <f t="shared" si="2"/>
         <v>15170</v>
       </c>
@@ -1952,7 +1959,7 @@
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>14894</v>
       </c>
@@ -1981,7 +1988,7 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="8">
         <f t="shared" si="2"/>
         <v>14628</v>
       </c>
@@ -2010,7 +2017,7 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>14371</v>
       </c>
@@ -2039,7 +2046,7 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="8">
         <f t="shared" si="2"/>
         <v>14124</v>
       </c>
@@ -2068,7 +2075,7 @@
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="8">
         <f t="shared" si="2"/>
         <v>13884</v>
       </c>
@@ -2097,7 +2104,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="8">
         <f t="shared" si="2"/>
         <v>13653</v>
       </c>
@@ -2126,7 +2133,7 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>13429</v>
       </c>
@@ -2155,7 +2162,7 @@
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="8">
         <f t="shared" si="2"/>
         <v>13212</v>
       </c>
@@ -2184,7 +2191,7 @@
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="8">
         <f t="shared" si="2"/>
         <v>13003</v>
       </c>
@@ -2213,7 +2220,7 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="8">
         <f t="shared" si="2"/>
         <v>12800</v>
       </c>
@@ -2242,7 +2249,7 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="8">
         <f t="shared" si="2"/>
         <v>12603</v>
       </c>
@@ -2271,7 +2278,7 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="8">
         <f t="shared" si="2"/>
         <v>12412</v>
       </c>
@@ -2300,7 +2307,7 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="8">
         <f t="shared" si="2"/>
         <v>12226</v>
       </c>
@@ -2329,7 +2336,7 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="8">
         <f t="shared" si="2"/>
         <v>12047</v>
       </c>
@@ -2358,7 +2365,7 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="8">
         <f t="shared" si="2"/>
         <v>11872</v>
       </c>
@@ -2387,7 +2394,7 @@
         <f t="shared" ref="C73:C136" si="7">TRUNC(B73/$B$1,0)</f>
         <v>350</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="8">
         <f t="shared" ref="D73:D136" si="8">TRUNC($B$5/C73,0)</f>
         <v>11702</v>
       </c>
@@ -2416,7 +2423,7 @@
         <f t="shared" si="7"/>
         <v>355</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="8">
         <f t="shared" si="8"/>
         <v>11538</v>
       </c>
@@ -2445,7 +2452,7 @@
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="8">
         <f t="shared" si="8"/>
         <v>11377</v>
       </c>
@@ -2474,7 +2481,7 @@
         <f t="shared" si="7"/>
         <v>365</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="8">
         <f t="shared" si="8"/>
         <v>11221</v>
       </c>
@@ -2503,7 +2510,7 @@
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="8">
         <f t="shared" si="8"/>
         <v>11070</v>
       </c>
@@ -2532,7 +2539,7 @@
         <f t="shared" si="7"/>
         <v>375</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="8">
         <f t="shared" si="8"/>
         <v>10922</v>
       </c>
@@ -2561,7 +2568,7 @@
         <f t="shared" si="7"/>
         <v>380</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="8">
         <f t="shared" si="8"/>
         <v>10778</v>
       </c>
@@ -2590,7 +2597,7 @@
         <f t="shared" si="7"/>
         <v>385</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="8">
         <f t="shared" si="8"/>
         <v>10638</v>
       </c>
@@ -2619,7 +2626,7 @@
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="8">
         <f t="shared" si="8"/>
         <v>10502</v>
       </c>
@@ -2648,7 +2655,7 @@
         <f t="shared" si="7"/>
         <v>395</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="8">
         <f t="shared" si="8"/>
         <v>10369</v>
       </c>
@@ -2677,7 +2684,7 @@
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="8">
         <f t="shared" si="8"/>
         <v>10240</v>
       </c>
@@ -2706,7 +2713,7 @@
         <f t="shared" si="7"/>
         <v>405</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="8">
         <f t="shared" si="8"/>
         <v>10113</v>
       </c>
@@ -2735,7 +2742,7 @@
         <f t="shared" si="7"/>
         <v>410</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="8">
         <f t="shared" si="8"/>
         <v>9990</v>
       </c>
@@ -2764,7 +2771,7 @@
         <f t="shared" si="7"/>
         <v>415</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="8">
         <f t="shared" si="8"/>
         <v>9869</v>
       </c>
@@ -2793,7 +2800,7 @@
         <f t="shared" si="7"/>
         <v>420</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="8">
         <f t="shared" si="8"/>
         <v>9752</v>
       </c>
@@ -2822,7 +2829,7 @@
         <f t="shared" si="7"/>
         <v>425</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="8">
         <f t="shared" si="8"/>
         <v>9637</v>
       </c>
@@ -2851,7 +2858,7 @@
         <f t="shared" si="7"/>
         <v>430</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="8">
         <f t="shared" si="8"/>
         <v>9525</v>
       </c>
@@ -2880,7 +2887,7 @@
         <f t="shared" si="7"/>
         <v>435</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="8">
         <f t="shared" si="8"/>
         <v>9416</v>
       </c>
@@ -2909,7 +2916,7 @@
         <f t="shared" si="7"/>
         <v>440</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="8">
         <f t="shared" si="8"/>
         <v>9309</v>
       </c>
@@ -2938,7 +2945,7 @@
         <f t="shared" si="7"/>
         <v>445</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="8">
         <f t="shared" si="8"/>
         <v>9204</v>
       </c>
@@ -2967,7 +2974,7 @@
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="8">
         <f t="shared" si="8"/>
         <v>9102</v>
       </c>
@@ -2996,7 +3003,7 @@
         <f t="shared" si="7"/>
         <v>455</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="8">
         <f t="shared" si="8"/>
         <v>9002</v>
       </c>
@@ -3025,7 +3032,7 @@
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="8">
         <f t="shared" si="8"/>
         <v>8904</v>
       </c>
@@ -3054,7 +3061,7 @@
         <f t="shared" si="7"/>
         <v>465</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="8">
         <f t="shared" si="8"/>
         <v>8808</v>
       </c>
@@ -3083,7 +3090,7 @@
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="8">
         <f t="shared" si="8"/>
         <v>8714</v>
       </c>
@@ -3112,7 +3119,7 @@
         <f t="shared" si="7"/>
         <v>475</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="8">
         <f t="shared" si="8"/>
         <v>8623</v>
       </c>
@@ -3141,7 +3148,7 @@
         <f t="shared" si="7"/>
         <v>480</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="8">
         <f t="shared" si="8"/>
         <v>8533</v>
       </c>
@@ -3170,7 +3177,7 @@
         <f t="shared" si="7"/>
         <v>485</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="8">
         <f t="shared" si="8"/>
         <v>8445</v>
       </c>
@@ -3199,7 +3206,7 @@
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="8">
         <f t="shared" si="8"/>
         <v>8359</v>
       </c>
@@ -3228,7 +3235,7 @@
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="8">
         <f t="shared" si="8"/>
         <v>8274</v>
       </c>
@@ -3257,7 +3264,7 @@
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="8">
         <f t="shared" si="8"/>
         <v>8192</v>
       </c>
@@ -3286,7 +3293,7 @@
         <f t="shared" si="7"/>
         <v>505</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="8">
         <f t="shared" si="8"/>
         <v>8110</v>
       </c>
@@ -3315,7 +3322,7 @@
         <f t="shared" si="7"/>
         <v>510</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="8">
         <f t="shared" si="8"/>
         <v>8031</v>
       </c>
@@ -3344,7 +3351,7 @@
         <f t="shared" si="7"/>
         <v>515</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="8">
         <f t="shared" si="8"/>
         <v>7953</v>
       </c>
@@ -3373,7 +3380,7 @@
         <f t="shared" si="7"/>
         <v>520</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="8">
         <f t="shared" si="8"/>
         <v>7876</v>
       </c>
@@ -3402,7 +3409,7 @@
         <f t="shared" si="7"/>
         <v>525</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="8">
         <f t="shared" si="8"/>
         <v>7801</v>
       </c>
@@ -3431,7 +3438,7 @@
         <f t="shared" si="7"/>
         <v>530</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="8">
         <f t="shared" si="8"/>
         <v>7728</v>
       </c>
@@ -3460,7 +3467,7 @@
         <f t="shared" si="7"/>
         <v>535</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="8">
         <f t="shared" si="8"/>
         <v>7656</v>
       </c>
@@ -3489,7 +3496,7 @@
         <f t="shared" si="7"/>
         <v>540</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="8">
         <f t="shared" si="8"/>
         <v>7585</v>
       </c>
@@ -3518,7 +3525,7 @@
         <f t="shared" si="7"/>
         <v>545</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="8">
         <f t="shared" si="8"/>
         <v>7515</v>
       </c>
@@ -3547,7 +3554,7 @@
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="8">
         <f t="shared" si="8"/>
         <v>7447</v>
       </c>
@@ -3576,7 +3583,7 @@
         <f t="shared" si="7"/>
         <v>555</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="8">
         <f t="shared" si="8"/>
         <v>7380</v>
       </c>
@@ -3605,7 +3612,7 @@
         <f t="shared" si="7"/>
         <v>560</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="8">
         <f t="shared" si="8"/>
         <v>7314</v>
       </c>
@@ -3634,7 +3641,7 @@
         <f t="shared" si="7"/>
         <v>565</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="8">
         <f t="shared" si="8"/>
         <v>7249</v>
       </c>
@@ -3663,7 +3670,7 @@
         <f t="shared" si="7"/>
         <v>570</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="8">
         <f t="shared" si="8"/>
         <v>7185</v>
       </c>
@@ -3692,7 +3699,7 @@
         <f t="shared" si="7"/>
         <v>575</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="8">
         <f t="shared" si="8"/>
         <v>7123</v>
       </c>
@@ -3721,7 +3728,7 @@
         <f t="shared" si="7"/>
         <v>580</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="8">
         <f t="shared" si="8"/>
         <v>7062</v>
       </c>
@@ -3750,7 +3757,7 @@
         <f t="shared" si="7"/>
         <v>585</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="8">
         <f t="shared" si="8"/>
         <v>7001</v>
       </c>
@@ -3779,7 +3786,7 @@
         <f t="shared" si="7"/>
         <v>590</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="8">
         <f t="shared" si="8"/>
         <v>6942</v>
       </c>
@@ -3808,7 +3815,7 @@
         <f t="shared" si="7"/>
         <v>595</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="8">
         <f t="shared" si="8"/>
         <v>6884</v>
       </c>
@@ -3837,7 +3844,7 @@
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="8">
         <f t="shared" si="8"/>
         <v>6826</v>
       </c>
@@ -3866,7 +3873,7 @@
         <f t="shared" si="7"/>
         <v>605</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="8">
         <f t="shared" si="8"/>
         <v>6770</v>
       </c>
@@ -3895,7 +3902,7 @@
         <f t="shared" si="7"/>
         <v>610</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="8">
         <f t="shared" si="8"/>
         <v>6714</v>
       </c>
@@ -3924,7 +3931,7 @@
         <f t="shared" si="7"/>
         <v>615</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="8">
         <f t="shared" si="8"/>
         <v>6660</v>
       </c>
@@ -3953,7 +3960,7 @@
         <f t="shared" si="7"/>
         <v>620</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="8">
         <f t="shared" si="8"/>
         <v>6606</v>
       </c>
@@ -3982,7 +3989,7 @@
         <f t="shared" si="7"/>
         <v>625</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="8">
         <f t="shared" si="8"/>
         <v>6553</v>
       </c>
@@ -4011,7 +4018,7 @@
         <f t="shared" si="7"/>
         <v>630</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="8">
         <f t="shared" si="8"/>
         <v>6501</v>
       </c>
@@ -4040,7 +4047,7 @@
         <f t="shared" si="7"/>
         <v>635</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="8">
         <f t="shared" si="8"/>
         <v>6450</v>
       </c>
@@ -4069,7 +4076,7 @@
         <f t="shared" si="7"/>
         <v>640</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="8">
         <f t="shared" si="8"/>
         <v>6400</v>
       </c>
@@ -4098,7 +4105,7 @@
         <f t="shared" si="7"/>
         <v>645</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="8">
         <f t="shared" si="8"/>
         <v>6350</v>
       </c>
@@ -4127,7 +4134,7 @@
         <f t="shared" si="7"/>
         <v>650</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="8">
         <f t="shared" si="8"/>
         <v>6301</v>
       </c>
@@ -4156,7 +4163,7 @@
         <f t="shared" si="7"/>
         <v>655</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="8">
         <f t="shared" si="8"/>
         <v>6253</v>
       </c>
@@ -4185,7 +4192,7 @@
         <f t="shared" si="7"/>
         <v>660</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="8">
         <f t="shared" si="8"/>
         <v>6206</v>
       </c>
@@ -4214,7 +4221,7 @@
         <f t="shared" si="7"/>
         <v>665</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="8">
         <f t="shared" si="8"/>
         <v>6159</v>
       </c>
@@ -4243,7 +4250,7 @@
         <f t="shared" ref="C137:C200" si="13">TRUNC(B137/$B$1,0)</f>
         <v>670</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="8">
         <f t="shared" ref="D137:D200" si="14">TRUNC($B$5/C137,0)</f>
         <v>6113</v>
       </c>
@@ -4272,7 +4279,7 @@
         <f t="shared" si="13"/>
         <v>675</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="8">
         <f t="shared" si="14"/>
         <v>6068</v>
       </c>
@@ -4301,7 +4308,7 @@
         <f t="shared" si="13"/>
         <v>680</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="8">
         <f t="shared" si="14"/>
         <v>6023</v>
       </c>
@@ -4330,7 +4337,7 @@
         <f t="shared" si="13"/>
         <v>685</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="8">
         <f t="shared" si="14"/>
         <v>5979</v>
       </c>
@@ -4359,7 +4366,7 @@
         <f t="shared" si="13"/>
         <v>690</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="8">
         <f t="shared" si="14"/>
         <v>5936</v>
       </c>
@@ -4388,7 +4395,7 @@
         <f t="shared" si="13"/>
         <v>695</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="8">
         <f t="shared" si="14"/>
         <v>5893</v>
       </c>
@@ -4417,7 +4424,7 @@
         <f t="shared" si="13"/>
         <v>700</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="8">
         <f t="shared" si="14"/>
         <v>5851</v>
       </c>
@@ -4446,7 +4453,7 @@
         <f t="shared" si="13"/>
         <v>705</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="8">
         <f t="shared" si="14"/>
         <v>5809</v>
       </c>
@@ -4475,7 +4482,7 @@
         <f t="shared" si="13"/>
         <v>710</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="8">
         <f t="shared" si="14"/>
         <v>5769</v>
       </c>
@@ -4504,7 +4511,7 @@
         <f t="shared" si="13"/>
         <v>715</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="8">
         <f t="shared" si="14"/>
         <v>5728</v>
       </c>
@@ -4533,7 +4540,7 @@
         <f t="shared" si="13"/>
         <v>720</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="8">
         <f t="shared" si="14"/>
         <v>5688</v>
       </c>
@@ -4562,7 +4569,7 @@
         <f t="shared" si="13"/>
         <v>725</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="8">
         <f t="shared" si="14"/>
         <v>5649</v>
       </c>
@@ -4591,7 +4598,7 @@
         <f t="shared" si="13"/>
         <v>730</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="8">
         <f t="shared" si="14"/>
         <v>5610</v>
       </c>
@@ -4620,7 +4627,7 @@
         <f t="shared" si="13"/>
         <v>735</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="8">
         <f t="shared" si="14"/>
         <v>5572</v>
       </c>
@@ -4649,7 +4656,7 @@
         <f t="shared" si="13"/>
         <v>740</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="8">
         <f t="shared" si="14"/>
         <v>5535</v>
       </c>
@@ -4678,7 +4685,7 @@
         <f t="shared" si="13"/>
         <v>745</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="8">
         <f t="shared" si="14"/>
         <v>5497</v>
       </c>
@@ -4707,7 +4714,7 @@
         <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="8">
         <f t="shared" si="14"/>
         <v>5461</v>
       </c>
@@ -4736,7 +4743,7 @@
         <f t="shared" si="13"/>
         <v>755</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="8">
         <f t="shared" si="14"/>
         <v>5425</v>
       </c>
@@ -4765,7 +4772,7 @@
         <f t="shared" si="13"/>
         <v>760</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="8">
         <f t="shared" si="14"/>
         <v>5389</v>
       </c>
@@ -4794,7 +4801,7 @@
         <f t="shared" si="13"/>
         <v>765</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="8">
         <f t="shared" si="14"/>
         <v>5354</v>
       </c>
@@ -4823,7 +4830,7 @@
         <f t="shared" si="13"/>
         <v>770</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="8">
         <f t="shared" si="14"/>
         <v>5319</v>
       </c>
@@ -4852,7 +4859,7 @@
         <f t="shared" si="13"/>
         <v>775</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="8">
         <f t="shared" si="14"/>
         <v>5285</v>
       </c>
@@ -4881,7 +4888,7 @@
         <f t="shared" si="13"/>
         <v>780</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="8">
         <f t="shared" si="14"/>
         <v>5251</v>
       </c>
@@ -4910,7 +4917,7 @@
         <f t="shared" si="13"/>
         <v>785</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="8">
         <f t="shared" si="14"/>
         <v>5217</v>
       </c>
@@ -4939,7 +4946,7 @@
         <f t="shared" si="13"/>
         <v>790</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="8">
         <f t="shared" si="14"/>
         <v>5184</v>
       </c>
@@ -4968,7 +4975,7 @@
         <f t="shared" si="13"/>
         <v>795</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="8">
         <f t="shared" si="14"/>
         <v>5152</v>
       </c>
@@ -4997,7 +5004,7 @@
         <f t="shared" si="13"/>
         <v>800</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="8">
         <f t="shared" si="14"/>
         <v>5120</v>
       </c>
@@ -5026,7 +5033,7 @@
         <f t="shared" si="13"/>
         <v>805</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="8">
         <f t="shared" si="14"/>
         <v>5088</v>
       </c>
@@ -5055,7 +5062,7 @@
         <f t="shared" si="13"/>
         <v>810</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="8">
         <f t="shared" si="14"/>
         <v>5056</v>
       </c>
@@ -5084,7 +5091,7 @@
         <f t="shared" si="13"/>
         <v>815</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="8">
         <f t="shared" si="14"/>
         <v>5025</v>
       </c>
@@ -5113,7 +5120,7 @@
         <f t="shared" si="13"/>
         <v>820</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="8">
         <f t="shared" si="14"/>
         <v>4995</v>
       </c>
@@ -5142,7 +5149,7 @@
         <f t="shared" si="13"/>
         <v>825</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="8">
         <f t="shared" si="14"/>
         <v>4964</v>
       </c>
@@ -5171,7 +5178,7 @@
         <f t="shared" si="13"/>
         <v>830</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="8">
         <f t="shared" si="14"/>
         <v>4934</v>
       </c>
@@ -5200,7 +5207,7 @@
         <f t="shared" si="13"/>
         <v>835</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="8">
         <f t="shared" si="14"/>
         <v>4905</v>
       </c>
@@ -5229,7 +5236,7 @@
         <f t="shared" si="13"/>
         <v>840</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="8">
         <f t="shared" si="14"/>
         <v>4876</v>
       </c>
@@ -5258,7 +5265,7 @@
         <f t="shared" si="13"/>
         <v>845</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="8">
         <f t="shared" si="14"/>
         <v>4847</v>
       </c>
@@ -5287,7 +5294,7 @@
         <f t="shared" si="13"/>
         <v>850</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="8">
         <f t="shared" si="14"/>
         <v>4818</v>
       </c>
@@ -5316,7 +5323,7 @@
         <f t="shared" si="13"/>
         <v>855</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="8">
         <f t="shared" si="14"/>
         <v>4790</v>
       </c>
@@ -5345,7 +5352,7 @@
         <f t="shared" si="13"/>
         <v>860</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="8">
         <f t="shared" si="14"/>
         <v>4762</v>
       </c>
@@ -5374,7 +5381,7 @@
         <f t="shared" si="13"/>
         <v>865</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="8">
         <f t="shared" si="14"/>
         <v>4735</v>
       </c>
@@ -5403,7 +5410,7 @@
         <f t="shared" si="13"/>
         <v>870</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="8">
         <f t="shared" si="14"/>
         <v>4708</v>
       </c>
@@ -5432,7 +5439,7 @@
         <f t="shared" si="13"/>
         <v>875</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="8">
         <f t="shared" si="14"/>
         <v>4681</v>
       </c>
@@ -5461,7 +5468,7 @@
         <f t="shared" si="13"/>
         <v>880</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="8">
         <f t="shared" si="14"/>
         <v>4654</v>
       </c>
@@ -5490,7 +5497,7 @@
         <f t="shared" si="13"/>
         <v>885</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="8">
         <f t="shared" si="14"/>
         <v>4628</v>
       </c>
@@ -5519,7 +5526,7 @@
         <f t="shared" si="13"/>
         <v>890</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="8">
         <f t="shared" si="14"/>
         <v>4602</v>
       </c>
@@ -5548,7 +5555,7 @@
         <f t="shared" si="13"/>
         <v>895</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="8">
         <f t="shared" si="14"/>
         <v>4576</v>
       </c>
@@ -5577,7 +5584,7 @@
         <f t="shared" si="13"/>
         <v>900</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="8">
         <f t="shared" si="14"/>
         <v>4551</v>
       </c>
@@ -5606,7 +5613,7 @@
         <f t="shared" si="13"/>
         <v>905</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="8">
         <f t="shared" si="14"/>
         <v>4525</v>
       </c>
@@ -5635,7 +5642,7 @@
         <f t="shared" si="13"/>
         <v>910</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="8">
         <f t="shared" si="14"/>
         <v>4501</v>
       </c>
@@ -5664,7 +5671,7 @@
         <f t="shared" si="13"/>
         <v>915</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="8">
         <f t="shared" si="14"/>
         <v>4476</v>
       </c>
@@ -5693,7 +5700,7 @@
         <f t="shared" si="13"/>
         <v>920</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="8">
         <f t="shared" si="14"/>
         <v>4452</v>
       </c>
@@ -5722,7 +5729,7 @@
         <f t="shared" si="13"/>
         <v>925</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="8">
         <f t="shared" si="14"/>
         <v>4428</v>
       </c>
@@ -5751,7 +5758,7 @@
         <f t="shared" si="13"/>
         <v>930</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="8">
         <f t="shared" si="14"/>
         <v>4404</v>
       </c>
@@ -5780,7 +5787,7 @@
         <f t="shared" si="13"/>
         <v>935</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="8">
         <f t="shared" si="14"/>
         <v>4380</v>
       </c>
@@ -5809,7 +5816,7 @@
         <f t="shared" si="13"/>
         <v>940</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="8">
         <f t="shared" si="14"/>
         <v>4357</v>
       </c>
@@ -5838,7 +5845,7 @@
         <f t="shared" si="13"/>
         <v>945</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="8">
         <f t="shared" si="14"/>
         <v>4334</v>
       </c>
@@ -5867,7 +5874,7 @@
         <f t="shared" si="13"/>
         <v>950</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="8">
         <f t="shared" si="14"/>
         <v>4311</v>
       </c>
@@ -5896,7 +5903,7 @@
         <f t="shared" si="13"/>
         <v>955</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="8">
         <f t="shared" si="14"/>
         <v>4289</v>
       </c>
@@ -5925,7 +5932,7 @@
         <f t="shared" si="13"/>
         <v>960</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="8">
         <f t="shared" si="14"/>
         <v>4266</v>
       </c>
@@ -5954,7 +5961,7 @@
         <f t="shared" si="13"/>
         <v>965</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="8">
         <f t="shared" si="14"/>
         <v>4244</v>
       </c>
@@ -5983,7 +5990,7 @@
         <f t="shared" si="13"/>
         <v>970</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="8">
         <f t="shared" si="14"/>
         <v>4222</v>
       </c>
@@ -6012,7 +6019,7 @@
         <f t="shared" si="13"/>
         <v>975</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="8">
         <f t="shared" si="14"/>
         <v>4201</v>
       </c>
@@ -6041,7 +6048,7 @@
         <f t="shared" si="13"/>
         <v>980</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="8">
         <f t="shared" si="14"/>
         <v>4179</v>
       </c>
@@ -6070,7 +6077,7 @@
         <f t="shared" si="13"/>
         <v>985</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="8">
         <f t="shared" si="14"/>
         <v>4158</v>
       </c>
@@ -6099,7 +6106,7 @@
         <f t="shared" ref="C201:C264" si="19">TRUNC(B201/$B$1,0)</f>
         <v>990</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="8">
         <f t="shared" ref="D201:D264" si="20">TRUNC($B$5/C201,0)</f>
         <v>4137</v>
       </c>
@@ -6128,7 +6135,7 @@
         <f t="shared" si="19"/>
         <v>995</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="8">
         <f t="shared" si="20"/>
         <v>4116</v>
       </c>
@@ -6157,7 +6164,7 @@
         <f t="shared" si="19"/>
         <v>1000</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="8">
         <f t="shared" si="20"/>
         <v>4096</v>
       </c>
@@ -6186,7 +6193,7 @@
         <f t="shared" si="19"/>
         <v>1005</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="8">
         <f t="shared" si="20"/>
         <v>4075</v>
       </c>
@@ -6215,7 +6222,7 @@
         <f t="shared" si="19"/>
         <v>1010</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="8">
         <f t="shared" si="20"/>
         <v>4055</v>
       </c>
@@ -6244,7 +6251,7 @@
         <f t="shared" si="19"/>
         <v>1015</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="8">
         <f t="shared" si="20"/>
         <v>4035</v>
       </c>
@@ -6273,7 +6280,7 @@
         <f t="shared" si="19"/>
         <v>1020</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="8">
         <f t="shared" si="20"/>
         <v>4015</v>
       </c>
@@ -6302,7 +6309,7 @@
         <f t="shared" si="19"/>
         <v>1025</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="8">
         <f t="shared" si="20"/>
         <v>3996</v>
       </c>
@@ -6331,7 +6338,7 @@
         <f t="shared" si="19"/>
         <v>1030</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="8">
         <f t="shared" si="20"/>
         <v>3976</v>
       </c>
@@ -6360,7 +6367,7 @@
         <f t="shared" si="19"/>
         <v>1035</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="8">
         <f t="shared" si="20"/>
         <v>3957</v>
       </c>
@@ -6389,7 +6396,7 @@
         <f t="shared" si="19"/>
         <v>1040</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="8">
         <f t="shared" si="20"/>
         <v>3938</v>
       </c>
@@ -6418,7 +6425,7 @@
         <f t="shared" si="19"/>
         <v>1045</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="8">
         <f t="shared" si="20"/>
         <v>3919</v>
       </c>
@@ -6447,7 +6454,7 @@
         <f t="shared" si="19"/>
         <v>1050</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="8">
         <f t="shared" si="20"/>
         <v>3900</v>
       </c>
@@ -6476,7 +6483,7 @@
         <f t="shared" si="19"/>
         <v>1055</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="8">
         <f t="shared" si="20"/>
         <v>3882</v>
       </c>
@@ -6505,7 +6512,7 @@
         <f t="shared" si="19"/>
         <v>1060</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="8">
         <f t="shared" si="20"/>
         <v>3864</v>
       </c>
@@ -6534,7 +6541,7 @@
         <f t="shared" si="19"/>
         <v>1065</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="8">
         <f t="shared" si="20"/>
         <v>3846</v>
       </c>
@@ -6563,7 +6570,7 @@
         <f t="shared" si="19"/>
         <v>1070</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="8">
         <f t="shared" si="20"/>
         <v>3828</v>
       </c>
@@ -6592,7 +6599,7 @@
         <f t="shared" si="19"/>
         <v>1075</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="8">
         <f t="shared" si="20"/>
         <v>3810</v>
       </c>
@@ -6621,7 +6628,7 @@
         <f t="shared" si="19"/>
         <v>1080</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="8">
         <f t="shared" si="20"/>
         <v>3792</v>
       </c>
@@ -6650,7 +6657,7 @@
         <f t="shared" si="19"/>
         <v>1085</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="8">
         <f t="shared" si="20"/>
         <v>3775</v>
       </c>
@@ -6679,7 +6686,7 @@
         <f t="shared" si="19"/>
         <v>1090</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="8">
         <f t="shared" si="20"/>
         <v>3757</v>
       </c>
@@ -6708,7 +6715,7 @@
         <f t="shared" si="19"/>
         <v>1095</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="8">
         <f t="shared" si="20"/>
         <v>3740</v>
       </c>
@@ -6737,7 +6744,7 @@
         <f t="shared" si="19"/>
         <v>1100</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="8">
         <f t="shared" si="20"/>
         <v>3723</v>
       </c>
@@ -6766,7 +6773,7 @@
         <f t="shared" si="19"/>
         <v>1105</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="8">
         <f t="shared" si="20"/>
         <v>3706</v>
       </c>
@@ -6795,7 +6802,7 @@
         <f t="shared" si="19"/>
         <v>1110</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="8">
         <f t="shared" si="20"/>
         <v>3690</v>
       </c>
@@ -6824,7 +6831,7 @@
         <f t="shared" si="19"/>
         <v>1115</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="8">
         <f t="shared" si="20"/>
         <v>3673</v>
       </c>
@@ -6853,7 +6860,7 @@
         <f t="shared" si="19"/>
         <v>1120</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="8">
         <f t="shared" si="20"/>
         <v>3657</v>
       </c>
@@ -6882,7 +6889,7 @@
         <f t="shared" si="19"/>
         <v>1125</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="8">
         <f t="shared" si="20"/>
         <v>3640</v>
       </c>
@@ -6911,7 +6918,7 @@
         <f t="shared" si="19"/>
         <v>1130</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="8">
         <f t="shared" si="20"/>
         <v>3624</v>
       </c>
@@ -6940,7 +6947,7 @@
         <f t="shared" si="19"/>
         <v>1135</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="8">
         <f t="shared" si="20"/>
         <v>3608</v>
       </c>
@@ -6969,7 +6976,7 @@
         <f t="shared" si="19"/>
         <v>1140</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="8">
         <f t="shared" si="20"/>
         <v>3592</v>
       </c>
@@ -6998,7 +7005,7 @@
         <f t="shared" si="19"/>
         <v>1145</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="8">
         <f t="shared" si="20"/>
         <v>3577</v>
       </c>
@@ -7027,7 +7034,7 @@
         <f t="shared" si="19"/>
         <v>1150</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="8">
         <f t="shared" si="20"/>
         <v>3561</v>
       </c>
@@ -7056,7 +7063,7 @@
         <f t="shared" si="19"/>
         <v>1155</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="8">
         <f t="shared" si="20"/>
         <v>3546</v>
       </c>
@@ -7085,7 +7092,7 @@
         <f t="shared" si="19"/>
         <v>1160</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="8">
         <f t="shared" si="20"/>
         <v>3531</v>
       </c>
@@ -7114,7 +7121,7 @@
         <f t="shared" si="19"/>
         <v>1165</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="8">
         <f t="shared" si="20"/>
         <v>3515</v>
       </c>
@@ -7143,7 +7150,7 @@
         <f t="shared" si="19"/>
         <v>1170</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="8">
         <f t="shared" si="20"/>
         <v>3500</v>
       </c>
@@ -7172,7 +7179,7 @@
         <f t="shared" si="19"/>
         <v>1175</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="8">
         <f t="shared" si="20"/>
         <v>3485</v>
       </c>
@@ -7201,7 +7208,7 @@
         <f t="shared" si="19"/>
         <v>1180</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="8">
         <f t="shared" si="20"/>
         <v>3471</v>
       </c>
@@ -7230,7 +7237,7 @@
         <f t="shared" si="19"/>
         <v>1185</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="8">
         <f t="shared" si="20"/>
         <v>3456</v>
       </c>
@@ -7259,7 +7266,7 @@
         <f t="shared" si="19"/>
         <v>1190</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="8">
         <f t="shared" si="20"/>
         <v>3442</v>
       </c>
@@ -7288,7 +7295,7 @@
         <f t="shared" si="19"/>
         <v>1195</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="8">
         <f t="shared" si="20"/>
         <v>3427</v>
       </c>
@@ -7317,7 +7324,7 @@
         <f t="shared" si="19"/>
         <v>1200</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="8">
         <f t="shared" si="20"/>
         <v>3413</v>
       </c>
@@ -7346,7 +7353,7 @@
         <f t="shared" si="19"/>
         <v>1205</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="8">
         <f t="shared" si="20"/>
         <v>3399</v>
       </c>
@@ -7375,7 +7382,7 @@
         <f t="shared" si="19"/>
         <v>1210</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="8">
         <f t="shared" si="20"/>
         <v>3385</v>
       </c>
@@ -7404,7 +7411,7 @@
         <f t="shared" si="19"/>
         <v>1215</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="8">
         <f t="shared" si="20"/>
         <v>3371</v>
       </c>
@@ -7433,7 +7440,7 @@
         <f t="shared" si="19"/>
         <v>1220</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="8">
         <f t="shared" si="20"/>
         <v>3357</v>
       </c>
@@ -7462,7 +7469,7 @@
         <f t="shared" si="19"/>
         <v>1225</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="8">
         <f t="shared" si="20"/>
         <v>3343</v>
       </c>
@@ -7491,7 +7498,7 @@
         <f t="shared" si="19"/>
         <v>1230</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="8">
         <f t="shared" si="20"/>
         <v>3330</v>
       </c>
@@ -7520,7 +7527,7 @@
         <f t="shared" si="19"/>
         <v>1235</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="8">
         <f t="shared" si="20"/>
         <v>3316</v>
       </c>
@@ -7549,7 +7556,7 @@
         <f t="shared" si="19"/>
         <v>1240</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="8">
         <f t="shared" si="20"/>
         <v>3303</v>
       </c>
@@ -7578,7 +7585,7 @@
         <f t="shared" si="19"/>
         <v>1245</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="8">
         <f t="shared" si="20"/>
         <v>3289</v>
       </c>
@@ -7608,7 +7615,7 @@
         <f t="shared" si="19"/>
         <v>1250</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="8">
         <f t="shared" si="20"/>
         <v>3276</v>
       </c>
@@ -7638,7 +7645,7 @@
         <f t="shared" si="19"/>
         <v>1255</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="8">
         <f t="shared" si="20"/>
         <v>3263</v>
       </c>
@@ -7668,7 +7675,7 @@
         <f t="shared" si="19"/>
         <v>1260</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="8">
         <f t="shared" si="20"/>
         <v>3250</v>
       </c>
@@ -7698,7 +7705,7 @@
         <f t="shared" si="19"/>
         <v>1265</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="8">
         <f t="shared" si="20"/>
         <v>3237</v>
       </c>
@@ -7728,7 +7735,7 @@
         <f t="shared" si="19"/>
         <v>1270</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="8">
         <f t="shared" si="20"/>
         <v>3225</v>
       </c>
@@ -7758,7 +7765,7 @@
         <f t="shared" si="19"/>
         <v>1275</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="8">
         <f t="shared" si="20"/>
         <v>3212</v>
       </c>
@@ -7788,7 +7795,7 @@
         <f t="shared" si="19"/>
         <v>1280</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="8">
         <f t="shared" si="20"/>
         <v>3200</v>
       </c>
@@ -7818,7 +7825,7 @@
         <f t="shared" si="19"/>
         <v>1285</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="8">
         <f t="shared" si="20"/>
         <v>3187</v>
       </c>
@@ -7848,7 +7855,7 @@
         <f t="shared" si="19"/>
         <v>1290</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="8">
         <f t="shared" si="20"/>
         <v>3175</v>
       </c>
@@ -7878,7 +7885,7 @@
         <f t="shared" si="19"/>
         <v>1295</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="8">
         <f t="shared" si="20"/>
         <v>3162</v>
       </c>
@@ -7908,7 +7915,7 @@
         <f t="shared" si="19"/>
         <v>1300</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="8">
         <f t="shared" si="20"/>
         <v>3150</v>
       </c>
@@ -7938,7 +7945,7 @@
         <f t="shared" si="19"/>
         <v>1305</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="8">
         <f t="shared" si="20"/>
         <v>3138</v>
       </c>
@@ -7968,7 +7975,7 @@
         <f t="shared" ref="C265:C288" si="27">TRUNC(B265/$B$1,0)</f>
         <v>1310</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="8">
         <f t="shared" ref="D265:D288" si="28">TRUNC($B$5/C265,0)</f>
         <v>3126</v>
       </c>
@@ -7998,7 +8005,7 @@
         <f t="shared" si="27"/>
         <v>1315</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="8">
         <f t="shared" si="28"/>
         <v>3114</v>
       </c>
@@ -8028,7 +8035,7 @@
         <f t="shared" si="27"/>
         <v>1320</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="8">
         <f t="shared" si="28"/>
         <v>3103</v>
       </c>
@@ -8058,7 +8065,7 @@
         <f t="shared" si="27"/>
         <v>1325</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="8">
         <f t="shared" si="28"/>
         <v>3091</v>
       </c>
@@ -8088,7 +8095,7 @@
         <f t="shared" si="27"/>
         <v>1330</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="8">
         <f t="shared" si="28"/>
         <v>3079</v>
       </c>
@@ -8118,7 +8125,7 @@
         <f t="shared" si="27"/>
         <v>1335</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="8">
         <f t="shared" si="28"/>
         <v>3068</v>
       </c>
@@ -8148,7 +8155,7 @@
         <f t="shared" si="27"/>
         <v>1340</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="8">
         <f t="shared" si="28"/>
         <v>3056</v>
       </c>
@@ -8178,7 +8185,7 @@
         <f t="shared" si="27"/>
         <v>1345</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="8">
         <f t="shared" si="28"/>
         <v>3045</v>
       </c>
@@ -8208,7 +8215,7 @@
         <f t="shared" si="27"/>
         <v>1350</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="8">
         <f t="shared" si="28"/>
         <v>3034</v>
       </c>
@@ -8238,7 +8245,7 @@
         <f t="shared" si="27"/>
         <v>1355</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="8">
         <f t="shared" si="28"/>
         <v>3022</v>
       </c>
@@ -8268,7 +8275,7 @@
         <f t="shared" si="27"/>
         <v>1360</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="8">
         <f t="shared" si="28"/>
         <v>3011</v>
       </c>
@@ -8298,7 +8305,7 @@
         <f t="shared" si="27"/>
         <v>1365</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="8">
         <f t="shared" si="28"/>
         <v>3000</v>
       </c>
@@ -8328,7 +8335,7 @@
         <f t="shared" si="27"/>
         <v>1370</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="8">
         <f t="shared" si="28"/>
         <v>2989</v>
       </c>
@@ -8358,7 +8365,7 @@
         <f t="shared" si="27"/>
         <v>1375</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="8">
         <f t="shared" si="28"/>
         <v>2978</v>
       </c>
@@ -8388,7 +8395,7 @@
         <f t="shared" si="27"/>
         <v>1380</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="8">
         <f t="shared" si="28"/>
         <v>2968</v>
       </c>
@@ -8418,7 +8425,7 @@
         <f t="shared" si="27"/>
         <v>1385</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="8">
         <f t="shared" si="28"/>
         <v>2957</v>
       </c>
@@ -8448,7 +8455,7 @@
         <f t="shared" si="27"/>
         <v>1390</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="8">
         <f t="shared" si="28"/>
         <v>2946</v>
       </c>
@@ -8478,7 +8485,7 @@
         <f t="shared" si="27"/>
         <v>1395</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="8">
         <f t="shared" si="28"/>
         <v>2936</v>
       </c>
@@ -8508,7 +8515,7 @@
         <f t="shared" si="27"/>
         <v>1400</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="8">
         <f t="shared" si="28"/>
         <v>2925</v>
       </c>
@@ -8538,7 +8545,7 @@
         <f t="shared" si="27"/>
         <v>1405</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="8">
         <f t="shared" si="28"/>
         <v>2915</v>
       </c>
@@ -8568,7 +8575,7 @@
         <f t="shared" si="27"/>
         <v>1410</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="8">
         <f t="shared" si="28"/>
         <v>2904</v>
       </c>
@@ -8598,7 +8605,7 @@
         <f t="shared" si="27"/>
         <v>1415</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="8">
         <f t="shared" si="28"/>
         <v>2894</v>
       </c>
@@ -8628,7 +8635,7 @@
         <f t="shared" si="27"/>
         <v>1420</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="8">
         <f t="shared" si="28"/>
         <v>2884</v>
       </c>
@@ -8658,7 +8665,7 @@
         <f t="shared" si="27"/>
         <v>1425</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="8">
         <f t="shared" si="28"/>
         <v>2874</v>
       </c>
@@ -8688,7 +8695,7 @@
         <f t="shared" ref="C289:C352" si="33">TRUNC(B289/$B$1,0)</f>
         <v>1430</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="8">
         <f t="shared" ref="D289:D352" si="34">TRUNC($B$5/C289,0)</f>
         <v>2864</v>
       </c>
@@ -8718,7 +8725,7 @@
         <f t="shared" si="33"/>
         <v>1435</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="8">
         <f t="shared" si="34"/>
         <v>2854</v>
       </c>
@@ -8748,7 +8755,7 @@
         <f t="shared" si="33"/>
         <v>1440</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="8">
         <f t="shared" si="34"/>
         <v>2844</v>
       </c>
@@ -8778,7 +8785,7 @@
         <f t="shared" si="33"/>
         <v>1445</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="8">
         <f t="shared" si="34"/>
         <v>2834</v>
       </c>
@@ -8808,7 +8815,7 @@
         <f t="shared" si="33"/>
         <v>1450</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="8">
         <f t="shared" si="34"/>
         <v>2824</v>
       </c>
@@ -8838,7 +8845,7 @@
         <f t="shared" si="33"/>
         <v>1455</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="8">
         <f t="shared" si="34"/>
         <v>2815</v>
       </c>
@@ -8868,7 +8875,7 @@
         <f t="shared" si="33"/>
         <v>1460</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="8">
         <f t="shared" si="34"/>
         <v>2805</v>
       </c>
@@ -8898,7 +8905,7 @@
         <f t="shared" si="33"/>
         <v>1465</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="8">
         <f t="shared" si="34"/>
         <v>2795</v>
       </c>
@@ -8928,7 +8935,7 @@
         <f t="shared" si="33"/>
         <v>1470</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="8">
         <f t="shared" si="34"/>
         <v>2786</v>
       </c>
@@ -8958,7 +8965,7 @@
         <f t="shared" si="33"/>
         <v>1475</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="8">
         <f t="shared" si="34"/>
         <v>2776</v>
       </c>
@@ -8988,7 +8995,7 @@
         <f t="shared" si="33"/>
         <v>1480</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="8">
         <f t="shared" si="34"/>
         <v>2767</v>
       </c>
@@ -9018,7 +9025,7 @@
         <f t="shared" si="33"/>
         <v>1485</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="8">
         <f t="shared" si="34"/>
         <v>2758</v>
       </c>
@@ -9048,7 +9055,7 @@
         <f t="shared" si="33"/>
         <v>1490</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="8">
         <f t="shared" si="34"/>
         <v>2748</v>
       </c>
@@ -9078,7 +9085,7 @@
         <f t="shared" si="33"/>
         <v>1495</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="8">
         <f t="shared" si="34"/>
         <v>2739</v>
       </c>
@@ -9108,7 +9115,7 @@
         <f t="shared" si="33"/>
         <v>1500</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="8">
         <f t="shared" si="34"/>
         <v>2730</v>
       </c>
@@ -9138,7 +9145,7 @@
         <f t="shared" si="33"/>
         <v>1505</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="8">
         <f t="shared" si="34"/>
         <v>2721</v>
       </c>
@@ -9168,7 +9175,7 @@
         <f t="shared" si="33"/>
         <v>1510</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="8">
         <f t="shared" si="34"/>
         <v>2712</v>
       </c>
@@ -9198,7 +9205,7 @@
         <f t="shared" si="33"/>
         <v>1515</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="8">
         <f t="shared" si="34"/>
         <v>2703</v>
       </c>
@@ -9228,7 +9235,7 @@
         <f t="shared" si="33"/>
         <v>1520</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="8">
         <f t="shared" si="34"/>
         <v>2694</v>
       </c>
@@ -9258,7 +9265,7 @@
         <f t="shared" si="33"/>
         <v>1525</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="8">
         <f t="shared" si="34"/>
         <v>2685</v>
       </c>
@@ -9288,7 +9295,7 @@
         <f t="shared" si="33"/>
         <v>1530</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="8">
         <f t="shared" si="34"/>
         <v>2677</v>
       </c>
@@ -9318,7 +9325,7 @@
         <f t="shared" si="33"/>
         <v>1535</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="8">
         <f t="shared" si="34"/>
         <v>2668</v>
       </c>
@@ -9348,7 +9355,7 @@
         <f t="shared" si="33"/>
         <v>1540</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="8">
         <f t="shared" si="34"/>
         <v>2659</v>
       </c>
@@ -9378,7 +9385,7 @@
         <f t="shared" si="33"/>
         <v>1545</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="8">
         <f t="shared" si="34"/>
         <v>2651</v>
       </c>
@@ -9408,7 +9415,7 @@
         <f t="shared" si="33"/>
         <v>1550</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="8">
         <f t="shared" si="34"/>
         <v>2642</v>
       </c>
@@ -9438,7 +9445,7 @@
         <f t="shared" si="33"/>
         <v>1555</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="8">
         <f t="shared" si="34"/>
         <v>2634</v>
       </c>
@@ -9468,7 +9475,7 @@
         <f t="shared" si="33"/>
         <v>1560</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="8">
         <f t="shared" si="34"/>
         <v>2625</v>
       </c>
@@ -9498,7 +9505,7 @@
         <f t="shared" si="33"/>
         <v>1565</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="8">
         <f t="shared" si="34"/>
         <v>2617</v>
       </c>
@@ -9528,7 +9535,7 @@
         <f t="shared" si="33"/>
         <v>1570</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="8">
         <f t="shared" si="34"/>
         <v>2608</v>
       </c>
@@ -9558,7 +9565,7 @@
         <f t="shared" si="33"/>
         <v>1575</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="8">
         <f t="shared" si="34"/>
         <v>2600</v>
       </c>
@@ -9588,7 +9595,7 @@
         <f t="shared" si="33"/>
         <v>1580</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="8">
         <f t="shared" si="34"/>
         <v>2592</v>
       </c>
@@ -9618,7 +9625,7 @@
         <f t="shared" si="33"/>
         <v>1585</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="8">
         <f t="shared" si="34"/>
         <v>2584</v>
       </c>
@@ -9648,7 +9655,7 @@
         <f t="shared" si="33"/>
         <v>1590</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="8">
         <f t="shared" si="34"/>
         <v>2576</v>
       </c>
@@ -9678,7 +9685,7 @@
         <f t="shared" si="33"/>
         <v>1595</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="8">
         <f t="shared" si="34"/>
         <v>2568</v>
       </c>
@@ -9708,7 +9715,7 @@
         <f t="shared" si="33"/>
         <v>1600</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="8">
         <f t="shared" si="34"/>
         <v>2560</v>
       </c>
@@ -9738,7 +9745,7 @@
         <f t="shared" si="33"/>
         <v>1605</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="8">
         <f t="shared" si="34"/>
         <v>2552</v>
       </c>
@@ -9768,7 +9775,7 @@
         <f t="shared" si="33"/>
         <v>1610</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="8">
         <f t="shared" si="34"/>
         <v>2544</v>
       </c>
@@ -9798,7 +9805,7 @@
         <f t="shared" si="33"/>
         <v>1615</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="8">
         <f t="shared" si="34"/>
         <v>2536</v>
       </c>
@@ -9828,7 +9835,7 @@
         <f t="shared" si="33"/>
         <v>1620</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="8">
         <f t="shared" si="34"/>
         <v>2528</v>
       </c>
@@ -9858,7 +9865,7 @@
         <f t="shared" si="33"/>
         <v>1625</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="8">
         <f t="shared" si="34"/>
         <v>2520</v>
       </c>
@@ -9888,7 +9895,7 @@
         <f t="shared" si="33"/>
         <v>1630</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="8">
         <f t="shared" si="34"/>
         <v>2512</v>
       </c>
@@ -9918,7 +9925,7 @@
         <f t="shared" si="33"/>
         <v>1635</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="8">
         <f t="shared" si="34"/>
         <v>2505</v>
       </c>
@@ -9948,7 +9955,7 @@
         <f t="shared" si="33"/>
         <v>1640</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="8">
         <f t="shared" si="34"/>
         <v>2497</v>
       </c>
@@ -9978,7 +9985,7 @@
         <f t="shared" si="33"/>
         <v>1645</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="8">
         <f t="shared" si="34"/>
         <v>2489</v>
       </c>
@@ -10008,7 +10015,7 @@
         <f t="shared" si="33"/>
         <v>1650</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="8">
         <f t="shared" si="34"/>
         <v>2482</v>
       </c>
@@ -10038,7 +10045,7 @@
         <f t="shared" si="33"/>
         <v>1655</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="8">
         <f t="shared" si="34"/>
         <v>2474</v>
       </c>
@@ -10068,7 +10075,7 @@
         <f t="shared" si="33"/>
         <v>1660</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="8">
         <f t="shared" si="34"/>
         <v>2467</v>
       </c>
@@ -10098,7 +10105,7 @@
         <f t="shared" si="33"/>
         <v>1665</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="8">
         <f t="shared" si="34"/>
         <v>2460</v>
       </c>
@@ -10128,7 +10135,7 @@
         <f t="shared" si="33"/>
         <v>1670</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="8">
         <f t="shared" si="34"/>
         <v>2452</v>
       </c>
@@ -10158,7 +10165,7 @@
         <f t="shared" si="33"/>
         <v>1675</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="8">
         <f t="shared" si="34"/>
         <v>2445</v>
       </c>
@@ -10188,7 +10195,7 @@
         <f t="shared" si="33"/>
         <v>1680</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="8">
         <f t="shared" si="34"/>
         <v>2438</v>
       </c>
@@ -10218,7 +10225,7 @@
         <f t="shared" si="33"/>
         <v>1685</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="8">
         <f t="shared" si="34"/>
         <v>2430</v>
       </c>
@@ -10248,7 +10255,7 @@
         <f t="shared" si="33"/>
         <v>1690</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="8">
         <f t="shared" si="34"/>
         <v>2423</v>
       </c>
@@ -10278,7 +10285,7 @@
         <f t="shared" si="33"/>
         <v>1695</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="8">
         <f t="shared" si="34"/>
         <v>2416</v>
       </c>
@@ -10308,7 +10315,7 @@
         <f t="shared" si="33"/>
         <v>1700</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="8">
         <f t="shared" si="34"/>
         <v>2409</v>
       </c>
@@ -10338,7 +10345,7 @@
         <f t="shared" si="33"/>
         <v>1705</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="8">
         <f t="shared" si="34"/>
         <v>2402</v>
       </c>
@@ -10368,7 +10375,7 @@
         <f t="shared" si="33"/>
         <v>1710</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="8">
         <f t="shared" si="34"/>
         <v>2395</v>
       </c>
@@ -10398,7 +10405,7 @@
         <f t="shared" si="33"/>
         <v>1715</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="8">
         <f t="shared" si="34"/>
         <v>2388</v>
       </c>
@@ -10428,7 +10435,7 @@
         <f t="shared" si="33"/>
         <v>1720</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="8">
         <f t="shared" si="34"/>
         <v>2381</v>
       </c>
@@ -10458,7 +10465,7 @@
         <f t="shared" si="33"/>
         <v>1725</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="8">
         <f t="shared" si="34"/>
         <v>2374</v>
       </c>
@@ -10488,7 +10495,7 @@
         <f t="shared" si="33"/>
         <v>1730</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="8">
         <f t="shared" si="34"/>
         <v>2367</v>
       </c>
@@ -10518,7 +10525,7 @@
         <f t="shared" si="33"/>
         <v>1735</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="8">
         <f t="shared" si="34"/>
         <v>2360</v>
       </c>
@@ -10548,7 +10555,7 @@
         <f t="shared" si="33"/>
         <v>1740</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="8">
         <f t="shared" si="34"/>
         <v>2354</v>
       </c>
@@ -10578,7 +10585,7 @@
         <f t="shared" si="33"/>
         <v>1745</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="8">
         <f t="shared" si="34"/>
         <v>2347</v>
       </c>
@@ -10608,7 +10615,7 @@
         <f t="shared" ref="C353:C416" si="40">TRUNC(B353/$B$1,0)</f>
         <v>1750</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="8">
         <f t="shared" ref="D353:D416" si="41">TRUNC($B$5/C353,0)</f>
         <v>2340</v>
       </c>
@@ -10638,7 +10645,7 @@
         <f t="shared" si="40"/>
         <v>1755</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="8">
         <f t="shared" si="41"/>
         <v>2333</v>
       </c>
@@ -10668,7 +10675,7 @@
         <f t="shared" si="40"/>
         <v>1760</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="8">
         <f t="shared" si="41"/>
         <v>2327</v>
       </c>
@@ -10698,7 +10705,7 @@
         <f t="shared" si="40"/>
         <v>1765</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="8">
         <f t="shared" si="41"/>
         <v>2320</v>
       </c>
@@ -10728,7 +10735,7 @@
         <f t="shared" si="40"/>
         <v>1770</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="8">
         <f t="shared" si="41"/>
         <v>2314</v>
       </c>
@@ -10758,7 +10765,7 @@
         <f t="shared" si="40"/>
         <v>1775</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="8">
         <f t="shared" si="41"/>
         <v>2307</v>
       </c>
@@ -10788,7 +10795,7 @@
         <f t="shared" si="40"/>
         <v>1780</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="8">
         <f t="shared" si="41"/>
         <v>2301</v>
       </c>
@@ -10818,7 +10825,7 @@
         <f t="shared" si="40"/>
         <v>1785</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="8">
         <f t="shared" si="41"/>
         <v>2294</v>
       </c>
@@ -10848,7 +10855,7 @@
         <f t="shared" si="40"/>
         <v>1790</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="8">
         <f t="shared" si="41"/>
         <v>2288</v>
       </c>
@@ -10878,7 +10885,7 @@
         <f t="shared" si="40"/>
         <v>1795</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="8">
         <f t="shared" si="41"/>
         <v>2281</v>
       </c>
@@ -10908,7 +10915,7 @@
         <f t="shared" si="40"/>
         <v>1800</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="8">
         <f t="shared" si="41"/>
         <v>2275</v>
       </c>
@@ -10938,7 +10945,7 @@
         <f t="shared" si="40"/>
         <v>1805</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="8">
         <f t="shared" si="41"/>
         <v>2269</v>
       </c>
@@ -10968,7 +10975,7 @@
         <f t="shared" si="40"/>
         <v>1810</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="8">
         <f t="shared" si="41"/>
         <v>2262</v>
       </c>
@@ -10998,7 +11005,7 @@
         <f t="shared" si="40"/>
         <v>1815</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="8">
         <f t="shared" si="41"/>
         <v>2256</v>
       </c>
@@ -11028,7 +11035,7 @@
         <f t="shared" si="40"/>
         <v>1820</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="8">
         <f t="shared" si="41"/>
         <v>2250</v>
       </c>
@@ -11058,7 +11065,7 @@
         <f t="shared" si="40"/>
         <v>1825</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="8">
         <f t="shared" si="41"/>
         <v>2244</v>
       </c>
@@ -11088,7 +11095,7 @@
         <f t="shared" si="40"/>
         <v>1830</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="8">
         <f t="shared" si="41"/>
         <v>2238</v>
       </c>
@@ -11118,7 +11125,7 @@
         <f t="shared" si="40"/>
         <v>1835</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="8">
         <f t="shared" si="41"/>
         <v>2232</v>
       </c>
@@ -11148,7 +11155,7 @@
         <f t="shared" si="40"/>
         <v>1840</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="8">
         <f t="shared" si="41"/>
         <v>2226</v>
       </c>
@@ -11178,7 +11185,7 @@
         <f t="shared" si="40"/>
         <v>1845</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="8">
         <f t="shared" si="41"/>
         <v>2220</v>
       </c>
@@ -11208,7 +11215,7 @@
         <f t="shared" si="40"/>
         <v>1850</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="8">
         <f t="shared" si="41"/>
         <v>2214</v>
       </c>
@@ -11238,7 +11245,7 @@
         <f t="shared" si="40"/>
         <v>1855</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="8">
         <f t="shared" si="41"/>
         <v>2208</v>
       </c>
@@ -11268,7 +11275,7 @@
         <f t="shared" si="40"/>
         <v>1860</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="8">
         <f t="shared" si="41"/>
         <v>2202</v>
       </c>
@@ -11298,7 +11305,7 @@
         <f t="shared" si="40"/>
         <v>1865</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="8">
         <f t="shared" si="41"/>
         <v>2196</v>
       </c>
@@ -11328,7 +11335,7 @@
         <f t="shared" si="40"/>
         <v>1870</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="8">
         <f t="shared" si="41"/>
         <v>2190</v>
       </c>
@@ -11358,7 +11365,7 @@
         <f t="shared" si="40"/>
         <v>1875</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="8">
         <f t="shared" si="41"/>
         <v>2184</v>
       </c>
@@ -11388,7 +11395,7 @@
         <f t="shared" si="40"/>
         <v>1880</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="8">
         <f t="shared" si="41"/>
         <v>2178</v>
       </c>
@@ -11418,7 +11425,7 @@
         <f t="shared" si="40"/>
         <v>1885</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="8">
         <f t="shared" si="41"/>
         <v>2172</v>
       </c>
@@ -11448,7 +11455,7 @@
         <f t="shared" si="40"/>
         <v>1890</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="8">
         <f t="shared" si="41"/>
         <v>2167</v>
       </c>
@@ -11478,7 +11485,7 @@
         <f t="shared" si="40"/>
         <v>1895</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="8">
         <f t="shared" si="41"/>
         <v>2161</v>
       </c>
@@ -11508,7 +11515,7 @@
         <f t="shared" si="40"/>
         <v>1900</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="8">
         <f t="shared" si="41"/>
         <v>2155</v>
       </c>
@@ -11538,7 +11545,7 @@
         <f t="shared" si="40"/>
         <v>1905</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="8">
         <f t="shared" si="41"/>
         <v>2150</v>
       </c>
@@ -11568,7 +11575,7 @@
         <f t="shared" si="40"/>
         <v>1910</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="8">
         <f t="shared" si="41"/>
         <v>2144</v>
       </c>
@@ -11598,7 +11605,7 @@
         <f t="shared" si="40"/>
         <v>1915</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="8">
         <f t="shared" si="41"/>
         <v>2138</v>
       </c>
@@ -11628,7 +11635,7 @@
         <f t="shared" si="40"/>
         <v>1920</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="8">
         <f t="shared" si="41"/>
         <v>2133</v>
       </c>
@@ -11658,7 +11665,7 @@
         <f t="shared" si="40"/>
         <v>1925</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="8">
         <f t="shared" si="41"/>
         <v>2127</v>
       </c>
@@ -11688,7 +11695,7 @@
         <f t="shared" si="40"/>
         <v>1930</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="8">
         <f t="shared" si="41"/>
         <v>2122</v>
       </c>
@@ -11718,7 +11725,7 @@
         <f t="shared" si="40"/>
         <v>1935</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="8">
         <f t="shared" si="41"/>
         <v>2116</v>
       </c>
@@ -11748,7 +11755,7 @@
         <f t="shared" si="40"/>
         <v>1940</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="8">
         <f t="shared" si="41"/>
         <v>2111</v>
       </c>
@@ -11778,7 +11785,7 @@
         <f t="shared" si="40"/>
         <v>1945</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="8">
         <f t="shared" si="41"/>
         <v>2105</v>
       </c>
@@ -11808,7 +11815,7 @@
         <f t="shared" si="40"/>
         <v>1950</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="8">
         <f t="shared" si="41"/>
         <v>2100</v>
       </c>
@@ -11838,7 +11845,7 @@
         <f t="shared" si="40"/>
         <v>1955</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="8">
         <f t="shared" si="41"/>
         <v>2095</v>
       </c>
@@ -11868,7 +11875,7 @@
         <f t="shared" si="40"/>
         <v>1960</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="8">
         <f t="shared" si="41"/>
         <v>2089</v>
       </c>
@@ -11898,7 +11905,7 @@
         <f t="shared" si="40"/>
         <v>1965</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="8">
         <f t="shared" si="41"/>
         <v>2084</v>
       </c>
@@ -11928,7 +11935,7 @@
         <f t="shared" si="40"/>
         <v>1970</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="8">
         <f t="shared" si="41"/>
         <v>2079</v>
       </c>
@@ -11958,7 +11965,7 @@
         <f t="shared" si="40"/>
         <v>1975</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="8">
         <f t="shared" si="41"/>
         <v>2073</v>
       </c>
@@ -11988,7 +11995,7 @@
         <f t="shared" si="40"/>
         <v>1980</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="8">
         <f t="shared" si="41"/>
         <v>2068</v>
       </c>
@@ -12018,7 +12025,7 @@
         <f t="shared" si="40"/>
         <v>1985</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="8">
         <f t="shared" si="41"/>
         <v>2063</v>
       </c>
@@ -12048,7 +12055,7 @@
         <f t="shared" si="40"/>
         <v>1990</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="8">
         <f t="shared" si="41"/>
         <v>2058</v>
       </c>
@@ -12078,7 +12085,7 @@
         <f t="shared" si="40"/>
         <v>1995</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="8">
         <f t="shared" si="41"/>
         <v>2053</v>
       </c>
@@ -12108,7 +12115,7 @@
         <f t="shared" si="40"/>
         <v>2000</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="8">
         <f t="shared" si="41"/>
         <v>2048</v>
       </c>
@@ -12138,7 +12145,7 @@
         <f t="shared" si="40"/>
         <v>2005</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="8">
         <f t="shared" si="41"/>
         <v>2042</v>
       </c>
@@ -12168,7 +12175,7 @@
         <f t="shared" si="40"/>
         <v>2010</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="8">
         <f t="shared" si="41"/>
         <v>2037</v>
       </c>
@@ -12198,7 +12205,7 @@
         <f t="shared" si="40"/>
         <v>2015</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="8">
         <f t="shared" si="41"/>
         <v>2032</v>
       </c>
@@ -12228,7 +12235,7 @@
         <f t="shared" si="40"/>
         <v>2020</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="8">
         <f t="shared" si="41"/>
         <v>2027</v>
       </c>
@@ -12258,7 +12265,7 @@
         <f t="shared" si="40"/>
         <v>2025</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="8">
         <f t="shared" si="41"/>
         <v>2022</v>
       </c>
@@ -12288,7 +12295,7 @@
         <f t="shared" si="40"/>
         <v>2030</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="8">
         <f t="shared" si="41"/>
         <v>2017</v>
       </c>
@@ -12318,7 +12325,7 @@
         <f t="shared" si="40"/>
         <v>2035</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="8">
         <f t="shared" si="41"/>
         <v>2012</v>
       </c>
@@ -12348,7 +12355,7 @@
         <f t="shared" si="40"/>
         <v>2040</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="8">
         <f t="shared" si="41"/>
         <v>2007</v>
       </c>
@@ -12378,7 +12385,7 @@
         <f t="shared" si="40"/>
         <v>2045</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="8">
         <f t="shared" si="41"/>
         <v>2002</v>
       </c>
@@ -12408,7 +12415,7 @@
         <f t="shared" si="40"/>
         <v>2050</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="8">
         <f t="shared" si="41"/>
         <v>1998</v>
       </c>
@@ -12438,7 +12445,7 @@
         <f t="shared" si="40"/>
         <v>2055</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="8">
         <f t="shared" si="41"/>
         <v>1993</v>
       </c>
@@ -12468,7 +12475,7 @@
         <f t="shared" si="40"/>
         <v>2060</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="8">
         <f t="shared" si="41"/>
         <v>1988</v>
       </c>
@@ -12498,7 +12505,7 @@
         <f t="shared" si="40"/>
         <v>2065</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="8">
         <f t="shared" si="41"/>
         <v>1983</v>
       </c>
@@ -12528,7 +12535,7 @@
         <f t="shared" ref="C417:C480" si="47">TRUNC(B417/$B$1,0)</f>
         <v>2070</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="8">
         <f t="shared" ref="D417:D480" si="48">TRUNC($B$5/C417,0)</f>
         <v>1978</v>
       </c>
@@ -12558,7 +12565,7 @@
         <f t="shared" si="47"/>
         <v>2075</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="8">
         <f t="shared" si="48"/>
         <v>1973</v>
       </c>
@@ -12588,7 +12595,7 @@
         <f t="shared" si="47"/>
         <v>2080</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="8">
         <f t="shared" si="48"/>
         <v>1969</v>
       </c>
@@ -12618,7 +12625,7 @@
         <f t="shared" si="47"/>
         <v>2085</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="8">
         <f t="shared" si="48"/>
         <v>1964</v>
       </c>
@@ -12648,7 +12655,7 @@
         <f t="shared" si="47"/>
         <v>2090</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="8">
         <f t="shared" si="48"/>
         <v>1959</v>
       </c>
@@ -12678,7 +12685,7 @@
         <f t="shared" si="47"/>
         <v>2095</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="8">
         <f t="shared" si="48"/>
         <v>1955</v>
       </c>
@@ -12708,7 +12715,7 @@
         <f t="shared" si="47"/>
         <v>2100</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="8">
         <f t="shared" si="48"/>
         <v>1950</v>
       </c>
@@ -12738,7 +12745,7 @@
         <f t="shared" si="47"/>
         <v>2105</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="8">
         <f t="shared" si="48"/>
         <v>1945</v>
       </c>
@@ -12768,7 +12775,7 @@
         <f t="shared" si="47"/>
         <v>2110</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="8">
         <f t="shared" si="48"/>
         <v>1941</v>
       </c>
@@ -12798,7 +12805,7 @@
         <f t="shared" si="47"/>
         <v>2115</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="8">
         <f t="shared" si="48"/>
         <v>1936</v>
       </c>
@@ -12828,7 +12835,7 @@
         <f t="shared" si="47"/>
         <v>2120</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="8">
         <f t="shared" si="48"/>
         <v>1932</v>
       </c>
@@ -12858,7 +12865,7 @@
         <f t="shared" si="47"/>
         <v>2125</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="8">
         <f t="shared" si="48"/>
         <v>1927</v>
       </c>
@@ -12888,7 +12895,7 @@
         <f t="shared" si="47"/>
         <v>2130</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="8">
         <f t="shared" si="48"/>
         <v>1923</v>
       </c>
@@ -12918,7 +12925,7 @@
         <f t="shared" si="47"/>
         <v>2135</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="8">
         <f t="shared" si="48"/>
         <v>1918</v>
       </c>
@@ -12948,7 +12955,7 @@
         <f t="shared" si="47"/>
         <v>2140</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="8">
         <f t="shared" si="48"/>
         <v>1914</v>
       </c>
@@ -12978,7 +12985,7 @@
         <f t="shared" si="47"/>
         <v>2145</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="8">
         <f t="shared" si="48"/>
         <v>1909</v>
       </c>
@@ -13008,7 +13015,7 @@
         <f t="shared" si="47"/>
         <v>2150</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="8">
         <f t="shared" si="48"/>
         <v>1905</v>
       </c>
@@ -13038,7 +13045,7 @@
         <f t="shared" si="47"/>
         <v>2155</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="8">
         <f t="shared" si="48"/>
         <v>1900</v>
       </c>
@@ -13068,7 +13075,7 @@
         <f t="shared" si="47"/>
         <v>2160</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="8">
         <f t="shared" si="48"/>
         <v>1896</v>
       </c>
@@ -13098,7 +13105,7 @@
         <f t="shared" si="47"/>
         <v>2165</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="8">
         <f t="shared" si="48"/>
         <v>1891</v>
       </c>
@@ -13128,7 +13135,7 @@
         <f t="shared" si="47"/>
         <v>2170</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="8">
         <f t="shared" si="48"/>
         <v>1887</v>
       </c>
@@ -13158,7 +13165,7 @@
         <f t="shared" si="47"/>
         <v>2175</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="8">
         <f t="shared" si="48"/>
         <v>1883</v>
       </c>
@@ -13188,7 +13195,7 @@
         <f t="shared" si="47"/>
         <v>2180</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="8">
         <f t="shared" si="48"/>
         <v>1878</v>
       </c>
@@ -13218,7 +13225,7 @@
         <f t="shared" si="47"/>
         <v>2185</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="8">
         <f t="shared" si="48"/>
         <v>1874</v>
       </c>
@@ -13248,7 +13255,7 @@
         <f t="shared" si="47"/>
         <v>2190</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="8">
         <f t="shared" si="48"/>
         <v>1870</v>
       </c>
@@ -13278,7 +13285,7 @@
         <f t="shared" si="47"/>
         <v>2195</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="8">
         <f t="shared" si="48"/>
         <v>1866</v>
       </c>
@@ -13308,7 +13315,7 @@
         <f t="shared" si="47"/>
         <v>2200</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="8">
         <f t="shared" si="48"/>
         <v>1861</v>
       </c>
@@ -13338,7 +13345,7 @@
         <f t="shared" si="47"/>
         <v>2205</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="8">
         <f t="shared" si="48"/>
         <v>1857</v>
       </c>
@@ -13368,7 +13375,7 @@
         <f t="shared" si="47"/>
         <v>2210</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="8">
         <f t="shared" si="48"/>
         <v>1853</v>
       </c>
@@ -13398,7 +13405,7 @@
         <f t="shared" si="47"/>
         <v>2215</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="8">
         <f t="shared" si="48"/>
         <v>1849</v>
       </c>
@@ -13428,7 +13435,7 @@
         <f t="shared" si="47"/>
         <v>2220</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="8">
         <f t="shared" si="48"/>
         <v>1845</v>
       </c>
@@ -13458,7 +13465,7 @@
         <f t="shared" si="47"/>
         <v>2225</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="8">
         <f t="shared" si="48"/>
         <v>1840</v>
       </c>
@@ -13488,7 +13495,7 @@
         <f t="shared" si="47"/>
         <v>2230</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="8">
         <f t="shared" si="48"/>
         <v>1836</v>
       </c>
@@ -13518,7 +13525,7 @@
         <f t="shared" si="47"/>
         <v>2235</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="8">
         <f t="shared" si="48"/>
         <v>1832</v>
       </c>
@@ -13548,7 +13555,7 @@
         <f t="shared" si="47"/>
         <v>2240</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="8">
         <f t="shared" si="48"/>
         <v>1828</v>
       </c>
@@ -13578,7 +13585,7 @@
         <f t="shared" si="47"/>
         <v>2245</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="8">
         <f t="shared" si="48"/>
         <v>1824</v>
       </c>
@@ -13608,7 +13615,7 @@
         <f t="shared" si="47"/>
         <v>2250</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="8">
         <f t="shared" si="48"/>
         <v>1820</v>
       </c>
@@ -13638,7 +13645,7 @@
         <f t="shared" si="47"/>
         <v>2255</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="8">
         <f t="shared" si="48"/>
         <v>1816</v>
       </c>
@@ -13668,7 +13675,7 @@
         <f t="shared" si="47"/>
         <v>2260</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="8">
         <f t="shared" si="48"/>
         <v>1812</v>
       </c>
@@ -13698,7 +13705,7 @@
         <f t="shared" si="47"/>
         <v>2265</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="8">
         <f t="shared" si="48"/>
         <v>1808</v>
       </c>
@@ -13728,7 +13735,7 @@
         <f t="shared" si="47"/>
         <v>2270</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="8">
         <f t="shared" si="48"/>
         <v>1804</v>
       </c>
@@ -13758,7 +13765,7 @@
         <f t="shared" si="47"/>
         <v>2275</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="8">
         <f t="shared" si="48"/>
         <v>1800</v>
       </c>
@@ -13788,7 +13795,7 @@
         <f t="shared" si="47"/>
         <v>2280</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="8">
         <f t="shared" si="48"/>
         <v>1796</v>
       </c>
@@ -13818,7 +13825,7 @@
         <f t="shared" si="47"/>
         <v>2285</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="8">
         <f t="shared" si="48"/>
         <v>1792</v>
       </c>
@@ -13848,7 +13855,7 @@
         <f t="shared" si="47"/>
         <v>2290</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="8">
         <f t="shared" si="48"/>
         <v>1788</v>
       </c>
@@ -13878,7 +13885,7 @@
         <f t="shared" si="47"/>
         <v>2295</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="8">
         <f t="shared" si="48"/>
         <v>1784</v>
       </c>
@@ -13908,7 +13915,7 @@
         <f t="shared" si="47"/>
         <v>2300</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="8">
         <f t="shared" si="48"/>
         <v>1780</v>
       </c>
@@ -13938,7 +13945,7 @@
         <f t="shared" si="47"/>
         <v>2305</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="8">
         <f t="shared" si="48"/>
         <v>1777</v>
       </c>
@@ -13968,7 +13975,7 @@
         <f t="shared" si="47"/>
         <v>2310</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="8">
         <f t="shared" si="48"/>
         <v>1773</v>
       </c>
@@ -13998,7 +14005,7 @@
         <f t="shared" si="47"/>
         <v>2315</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="8">
         <f t="shared" si="48"/>
         <v>1769</v>
       </c>
@@ -14028,7 +14035,7 @@
         <f t="shared" si="47"/>
         <v>2320</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="8">
         <f t="shared" si="48"/>
         <v>1765</v>
       </c>
@@ -14058,7 +14065,7 @@
         <f t="shared" si="47"/>
         <v>2325</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="8">
         <f t="shared" si="48"/>
         <v>1761</v>
       </c>
@@ -14088,7 +14095,7 @@
         <f t="shared" si="47"/>
         <v>2330</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="8">
         <f t="shared" si="48"/>
         <v>1757</v>
       </c>
@@ -14118,7 +14125,7 @@
         <f t="shared" si="47"/>
         <v>2335</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="8">
         <f t="shared" si="48"/>
         <v>1754</v>
       </c>
@@ -14148,7 +14155,7 @@
         <f t="shared" si="47"/>
         <v>2340</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="8">
         <f t="shared" si="48"/>
         <v>1750</v>
       </c>
@@ -14178,7 +14185,7 @@
         <f t="shared" si="47"/>
         <v>2345</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="8">
         <f t="shared" si="48"/>
         <v>1746</v>
       </c>
@@ -14208,7 +14215,7 @@
         <f t="shared" si="47"/>
         <v>2350</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="8">
         <f t="shared" si="48"/>
         <v>1742</v>
       </c>
@@ -14238,7 +14245,7 @@
         <f t="shared" si="47"/>
         <v>2355</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="8">
         <f t="shared" si="48"/>
         <v>1739</v>
       </c>
@@ -14268,7 +14275,7 @@
         <f t="shared" si="47"/>
         <v>2360</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="8">
         <f t="shared" si="48"/>
         <v>1735</v>
       </c>
@@ -14298,7 +14305,7 @@
         <f t="shared" si="47"/>
         <v>2365</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="8">
         <f t="shared" si="48"/>
         <v>1731</v>
       </c>
@@ -14328,7 +14335,7 @@
         <f t="shared" si="47"/>
         <v>2370</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="8">
         <f t="shared" si="48"/>
         <v>1728</v>
       </c>
@@ -14358,7 +14365,7 @@
         <f t="shared" si="47"/>
         <v>2375</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="8">
         <f t="shared" si="48"/>
         <v>1724</v>
       </c>
@@ -14388,7 +14395,7 @@
         <f t="shared" si="47"/>
         <v>2380</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="8">
         <f t="shared" si="48"/>
         <v>1721</v>
       </c>
@@ -14418,7 +14425,7 @@
         <f t="shared" si="47"/>
         <v>2385</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="8">
         <f t="shared" si="48"/>
         <v>1717</v>
       </c>
@@ -14448,7 +14455,7 @@
         <f t="shared" ref="C481:C541" si="54">TRUNC(B481/$B$1,0)</f>
         <v>2390</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="8">
         <f t="shared" ref="D481:D541" si="55">TRUNC($B$5/C481,0)</f>
         <v>1713</v>
       </c>
@@ -14478,7 +14485,7 @@
         <f t="shared" si="54"/>
         <v>2395</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="8">
         <f t="shared" si="55"/>
         <v>1710</v>
       </c>
@@ -14508,7 +14515,7 @@
         <f t="shared" si="54"/>
         <v>2400</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="8">
         <f t="shared" si="55"/>
         <v>1706</v>
       </c>
@@ -14538,7 +14545,7 @@
         <f t="shared" si="54"/>
         <v>2405</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="8">
         <f t="shared" si="55"/>
         <v>1703</v>
       </c>
@@ -14568,7 +14575,7 @@
         <f t="shared" si="54"/>
         <v>2410</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="8">
         <f t="shared" si="55"/>
         <v>1699</v>
       </c>
@@ -14598,7 +14605,7 @@
         <f t="shared" si="54"/>
         <v>2415</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="8">
         <f t="shared" si="55"/>
         <v>1696</v>
       </c>
@@ -14628,7 +14635,7 @@
         <f t="shared" si="54"/>
         <v>2420</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="8">
         <f t="shared" si="55"/>
         <v>1692</v>
       </c>
@@ -14658,7 +14665,7 @@
         <f t="shared" si="54"/>
         <v>2425</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="8">
         <f t="shared" si="55"/>
         <v>1689</v>
       </c>
@@ -14688,7 +14695,7 @@
         <f t="shared" si="54"/>
         <v>2430</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="8">
         <f t="shared" si="55"/>
         <v>1685</v>
       </c>
@@ -14718,7 +14725,7 @@
         <f t="shared" si="54"/>
         <v>2435</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="8">
         <f t="shared" si="55"/>
         <v>1682</v>
       </c>
@@ -14748,7 +14755,7 @@
         <f t="shared" si="54"/>
         <v>2440</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="8">
         <f t="shared" si="55"/>
         <v>1678</v>
       </c>
@@ -14778,7 +14785,7 @@
         <f t="shared" si="54"/>
         <v>2445</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="8">
         <f t="shared" si="55"/>
         <v>1675</v>
       </c>
@@ -14808,7 +14815,7 @@
         <f t="shared" si="54"/>
         <v>2450</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="8">
         <f t="shared" si="55"/>
         <v>1671</v>
       </c>
@@ -14838,7 +14845,7 @@
         <f t="shared" si="54"/>
         <v>2455</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="8">
         <f t="shared" si="55"/>
         <v>1668</v>
       </c>
@@ -14868,7 +14875,7 @@
         <f t="shared" si="54"/>
         <v>2460</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="8">
         <f t="shared" si="55"/>
         <v>1665</v>
       </c>
@@ -14898,7 +14905,7 @@
         <f t="shared" si="54"/>
         <v>2465</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="8">
         <f t="shared" si="55"/>
         <v>1661</v>
       </c>
@@ -14928,7 +14935,7 @@
         <f t="shared" si="54"/>
         <v>2470</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="8">
         <f t="shared" si="55"/>
         <v>1658</v>
       </c>
@@ -14958,7 +14965,7 @@
         <f t="shared" si="54"/>
         <v>2475</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="8">
         <f t="shared" si="55"/>
         <v>1654</v>
       </c>
@@ -14988,7 +14995,7 @@
         <f t="shared" si="54"/>
         <v>2480</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="8">
         <f t="shared" si="55"/>
         <v>1651</v>
       </c>
@@ -15018,7 +15025,7 @@
         <f t="shared" si="54"/>
         <v>2485</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="8">
         <f t="shared" si="55"/>
         <v>1648</v>
       </c>
@@ -15048,7 +15055,7 @@
         <f t="shared" si="54"/>
         <v>2490</v>
       </c>
-      <c r="D501">
+      <c r="D501" s="8">
         <f t="shared" si="55"/>
         <v>1644</v>
       </c>
@@ -15078,7 +15085,7 @@
         <f t="shared" si="54"/>
         <v>2495</v>
       </c>
-      <c r="D502">
+      <c r="D502" s="8">
         <f t="shared" si="55"/>
         <v>1641</v>
       </c>
@@ -15108,7 +15115,7 @@
         <f t="shared" si="54"/>
         <v>2500</v>
       </c>
-      <c r="D503">
+      <c r="D503" s="8">
         <f t="shared" si="55"/>
         <v>1638</v>
       </c>
@@ -15138,7 +15145,7 @@
         <f t="shared" si="54"/>
         <v>2505</v>
       </c>
-      <c r="D504">
+      <c r="D504" s="8">
         <f t="shared" si="55"/>
         <v>1635</v>
       </c>
@@ -15168,7 +15175,7 @@
         <f t="shared" si="54"/>
         <v>2510</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="8">
         <f t="shared" si="55"/>
         <v>1631</v>
       </c>
@@ -15198,7 +15205,7 @@
         <f t="shared" si="54"/>
         <v>2515</v>
       </c>
-      <c r="D506">
+      <c r="D506" s="8">
         <f t="shared" si="55"/>
         <v>1628</v>
       </c>
@@ -15228,7 +15235,7 @@
         <f t="shared" si="54"/>
         <v>2520</v>
       </c>
-      <c r="D507">
+      <c r="D507" s="8">
         <f t="shared" si="55"/>
         <v>1625</v>
       </c>
@@ -15258,7 +15265,7 @@
         <f t="shared" si="54"/>
         <v>2525</v>
       </c>
-      <c r="D508">
+      <c r="D508" s="8">
         <f t="shared" si="55"/>
         <v>1622</v>
       </c>
@@ -15288,7 +15295,7 @@
         <f t="shared" si="54"/>
         <v>2530</v>
       </c>
-      <c r="D509">
+      <c r="D509" s="8">
         <f t="shared" si="55"/>
         <v>1618</v>
       </c>
@@ -15318,7 +15325,7 @@
         <f t="shared" si="54"/>
         <v>2535</v>
       </c>
-      <c r="D510">
+      <c r="D510" s="8">
         <f t="shared" si="55"/>
         <v>1615</v>
       </c>
@@ -15348,7 +15355,7 @@
         <f t="shared" si="54"/>
         <v>2540</v>
       </c>
-      <c r="D511">
+      <c r="D511" s="8">
         <f t="shared" si="55"/>
         <v>1612</v>
       </c>
@@ -15378,7 +15385,7 @@
         <f t="shared" si="54"/>
         <v>2545</v>
       </c>
-      <c r="D512">
+      <c r="D512" s="8">
         <f t="shared" si="55"/>
         <v>1609</v>
       </c>
@@ -15408,7 +15415,7 @@
         <f t="shared" si="54"/>
         <v>2550</v>
       </c>
-      <c r="D513">
+      <c r="D513" s="8">
         <f t="shared" si="55"/>
         <v>1606</v>
       </c>
@@ -15438,7 +15445,7 @@
         <f t="shared" si="54"/>
         <v>2555</v>
       </c>
-      <c r="D514">
+      <c r="D514" s="8">
         <f t="shared" si="55"/>
         <v>1603</v>
       </c>
@@ -15468,7 +15475,7 @@
         <f t="shared" si="54"/>
         <v>2560</v>
       </c>
-      <c r="D515">
+      <c r="D515" s="8">
         <f t="shared" si="55"/>
         <v>1600</v>
       </c>
@@ -15498,7 +15505,7 @@
         <f t="shared" si="54"/>
         <v>2565</v>
       </c>
-      <c r="D516">
+      <c r="D516" s="8">
         <f t="shared" si="55"/>
         <v>1596</v>
       </c>
@@ -15528,7 +15535,7 @@
         <f t="shared" si="54"/>
         <v>2570</v>
       </c>
-      <c r="D517">
+      <c r="D517" s="8">
         <f t="shared" si="55"/>
         <v>1593</v>
       </c>
@@ -15558,7 +15565,7 @@
         <f t="shared" si="54"/>
         <v>2575</v>
       </c>
-      <c r="D518">
+      <c r="D518" s="8">
         <f t="shared" si="55"/>
         <v>1590</v>
       </c>
@@ -15588,7 +15595,7 @@
         <f t="shared" si="54"/>
         <v>2580</v>
       </c>
-      <c r="D519">
+      <c r="D519" s="8">
         <f t="shared" si="55"/>
         <v>1587</v>
       </c>
@@ -15618,7 +15625,7 @@
         <f t="shared" si="54"/>
         <v>2585</v>
       </c>
-      <c r="D520">
+      <c r="D520" s="8">
         <f t="shared" si="55"/>
         <v>1584</v>
       </c>
@@ -15648,7 +15655,7 @@
         <f t="shared" si="54"/>
         <v>2590</v>
       </c>
-      <c r="D521">
+      <c r="D521" s="8">
         <f t="shared" si="55"/>
         <v>1581</v>
       </c>
@@ -15678,7 +15685,7 @@
         <f t="shared" si="54"/>
         <v>2595</v>
       </c>
-      <c r="D522">
+      <c r="D522" s="8">
         <f t="shared" si="55"/>
         <v>1578</v>
       </c>
@@ -15708,7 +15715,7 @@
         <f t="shared" si="54"/>
         <v>2600</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="8">
         <f t="shared" si="55"/>
         <v>1575</v>
       </c>
@@ -15738,7 +15745,7 @@
         <f t="shared" si="54"/>
         <v>2605</v>
       </c>
-      <c r="D524">
+      <c r="D524" s="8">
         <f t="shared" si="55"/>
         <v>1572</v>
       </c>
@@ -15768,7 +15775,7 @@
         <f t="shared" si="54"/>
         <v>2610</v>
       </c>
-      <c r="D525">
+      <c r="D525" s="8">
         <f t="shared" si="55"/>
         <v>1569</v>
       </c>
@@ -15798,7 +15805,7 @@
         <f t="shared" si="54"/>
         <v>2615</v>
       </c>
-      <c r="D526">
+      <c r="D526" s="8">
         <f t="shared" si="55"/>
         <v>1566</v>
       </c>
@@ -15828,7 +15835,7 @@
         <f t="shared" si="54"/>
         <v>2620</v>
       </c>
-      <c r="D527">
+      <c r="D527" s="8">
         <f t="shared" si="55"/>
         <v>1563</v>
       </c>
@@ -15858,7 +15865,7 @@
         <f t="shared" si="54"/>
         <v>2625</v>
       </c>
-      <c r="D528">
+      <c r="D528" s="8">
         <f t="shared" si="55"/>
         <v>1560</v>
       </c>
@@ -15888,7 +15895,7 @@
         <f t="shared" si="54"/>
         <v>2630</v>
       </c>
-      <c r="D529">
+      <c r="D529" s="8">
         <f t="shared" si="55"/>
         <v>1557</v>
       </c>
@@ -15918,7 +15925,7 @@
         <f t="shared" si="54"/>
         <v>2635</v>
       </c>
-      <c r="D530">
+      <c r="D530" s="8">
         <f t="shared" si="55"/>
         <v>1554</v>
       </c>
@@ -15948,7 +15955,7 @@
         <f t="shared" si="54"/>
         <v>2640</v>
       </c>
-      <c r="D531">
+      <c r="D531" s="8">
         <f t="shared" si="55"/>
         <v>1551</v>
       </c>
@@ -15978,7 +15985,7 @@
         <f t="shared" si="54"/>
         <v>2645</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="8">
         <f t="shared" si="55"/>
         <v>1548</v>
       </c>
@@ -16008,7 +16015,7 @@
         <f t="shared" si="54"/>
         <v>2650</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="8">
         <f t="shared" si="55"/>
         <v>1545</v>
       </c>
@@ -16038,7 +16045,7 @@
         <f t="shared" si="54"/>
         <v>2655</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="8">
         <f t="shared" si="55"/>
         <v>1542</v>
       </c>
@@ -16068,7 +16075,7 @@
         <f t="shared" si="54"/>
         <v>2660</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="8">
         <f t="shared" si="55"/>
         <v>1539</v>
       </c>
@@ -16098,7 +16105,7 @@
         <f t="shared" si="54"/>
         <v>2665</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="8">
         <f t="shared" si="55"/>
         <v>1536</v>
       </c>
@@ -16128,7 +16135,7 @@
         <f t="shared" si="54"/>
         <v>2670</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="8">
         <f t="shared" si="55"/>
         <v>1534</v>
       </c>
@@ -16158,7 +16165,7 @@
         <f t="shared" si="54"/>
         <v>2675</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="8">
         <f t="shared" si="55"/>
         <v>1531</v>
       </c>
@@ -16188,7 +16195,7 @@
         <f t="shared" si="54"/>
         <v>2680</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="8">
         <f t="shared" si="55"/>
         <v>1528</v>
       </c>
@@ -16218,7 +16225,7 @@
         <f t="shared" si="54"/>
         <v>2685</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="8">
         <f t="shared" si="55"/>
         <v>1525</v>
       </c>
@@ -16248,7 +16255,7 @@
         <f t="shared" si="54"/>
         <v>2690</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="8">
         <f t="shared" si="55"/>
         <v>1522</v>
       </c>
@@ -16278,7 +16285,7 @@
         <f t="shared" ref="C542:C555" si="61">TRUNC(B542/$B$1,0)</f>
         <v>2695</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="8">
         <f t="shared" ref="D542:D555" si="62">TRUNC($B$5/C542,0)</f>
         <v>1519</v>
       </c>
@@ -16308,7 +16315,7 @@
         <f t="shared" si="61"/>
         <v>2700</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="8">
         <f t="shared" si="62"/>
         <v>1517</v>
       </c>
@@ -16338,7 +16345,7 @@
         <f t="shared" si="61"/>
         <v>2705</v>
       </c>
-      <c r="D544">
+      <c r="D544" s="8">
         <f t="shared" si="62"/>
         <v>1514</v>
       </c>
@@ -16368,7 +16375,7 @@
         <f t="shared" si="61"/>
         <v>2710</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="8">
         <f t="shared" si="62"/>
         <v>1511</v>
       </c>
@@ -16398,7 +16405,7 @@
         <f t="shared" si="61"/>
         <v>2715</v>
       </c>
-      <c r="D546">
+      <c r="D546" s="8">
         <f t="shared" si="62"/>
         <v>1508</v>
       </c>
@@ -16428,7 +16435,7 @@
         <f t="shared" si="61"/>
         <v>2720</v>
       </c>
-      <c r="D547">
+      <c r="D547" s="8">
         <f t="shared" si="62"/>
         <v>1505</v>
       </c>
@@ -16458,7 +16465,7 @@
         <f t="shared" si="61"/>
         <v>2725</v>
       </c>
-      <c r="D548">
+      <c r="D548" s="8">
         <f t="shared" si="62"/>
         <v>1503</v>
       </c>
@@ -16488,7 +16495,7 @@
         <f t="shared" si="61"/>
         <v>2730</v>
       </c>
-      <c r="D549">
+      <c r="D549" s="8">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
@@ -16518,7 +16525,7 @@
         <f t="shared" si="61"/>
         <v>2735</v>
       </c>
-      <c r="D550">
+      <c r="D550" s="8">
         <f t="shared" si="62"/>
         <v>1497</v>
       </c>
@@ -16548,7 +16555,7 @@
         <f t="shared" si="61"/>
         <v>2740</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="8">
         <f t="shared" si="62"/>
         <v>1494</v>
       </c>
@@ -16578,7 +16585,7 @@
         <f t="shared" si="61"/>
         <v>2745</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="8">
         <f t="shared" si="62"/>
         <v>1492</v>
       </c>
@@ -16608,7 +16615,7 @@
         <f t="shared" si="61"/>
         <v>2750</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="8">
         <f t="shared" si="62"/>
         <v>1489</v>
       </c>
@@ -16638,7 +16645,7 @@
         <f t="shared" si="61"/>
         <v>2755</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="8">
         <f t="shared" si="62"/>
         <v>1486</v>
       </c>
@@ -16668,7 +16675,7 @@
         <f t="shared" si="61"/>
         <v>2760</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="8">
         <f t="shared" si="62"/>
         <v>1484</v>
       </c>
@@ -16698,7 +16705,7 @@
         <f t="shared" ref="C556:C578" si="66">TRUNC(B556/$B$1,0)</f>
         <v>2765</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="8">
         <f t="shared" ref="D556:D578" si="67">TRUNC($B$5/C556,0)</f>
         <v>1481</v>
       </c>
@@ -16728,7 +16735,7 @@
         <f t="shared" si="66"/>
         <v>2770</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="8">
         <f t="shared" si="67"/>
         <v>1478</v>
       </c>
@@ -16758,7 +16765,7 @@
         <f t="shared" si="66"/>
         <v>2775</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="8">
         <f t="shared" si="67"/>
         <v>1476</v>
       </c>
@@ -16788,7 +16795,7 @@
         <f t="shared" si="66"/>
         <v>2780</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="8">
         <f t="shared" si="67"/>
         <v>1473</v>
       </c>
@@ -16818,7 +16825,7 @@
         <f t="shared" si="66"/>
         <v>2785</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="8">
         <f t="shared" si="67"/>
         <v>1470</v>
       </c>
@@ -16848,7 +16855,7 @@
         <f t="shared" si="66"/>
         <v>2790</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="8">
         <f t="shared" si="67"/>
         <v>1468</v>
       </c>
@@ -16878,7 +16885,7 @@
         <f t="shared" si="66"/>
         <v>2795</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="8">
         <f t="shared" si="67"/>
         <v>1465</v>
       </c>
@@ -16908,7 +16915,7 @@
         <f t="shared" si="66"/>
         <v>2800</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="8">
         <f t="shared" si="67"/>
         <v>1462</v>
       </c>
@@ -16938,7 +16945,7 @@
         <f t="shared" si="66"/>
         <v>2805</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="8">
         <f t="shared" si="67"/>
         <v>1460</v>
       </c>
@@ -16968,7 +16975,7 @@
         <f t="shared" si="66"/>
         <v>2810</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="8">
         <f t="shared" si="67"/>
         <v>1457</v>
       </c>
@@ -16998,7 +17005,7 @@
         <f t="shared" si="66"/>
         <v>2815</v>
       </c>
-      <c r="D566">
+      <c r="D566" s="8">
         <f t="shared" si="67"/>
         <v>1455</v>
       </c>
@@ -17028,7 +17035,7 @@
         <f t="shared" si="66"/>
         <v>2820</v>
       </c>
-      <c r="D567">
+      <c r="D567" s="8">
         <f t="shared" si="67"/>
         <v>1452</v>
       </c>
@@ -17058,7 +17065,7 @@
         <f t="shared" si="66"/>
         <v>2825</v>
       </c>
-      <c r="D568">
+      <c r="D568" s="8">
         <f t="shared" si="67"/>
         <v>1449</v>
       </c>
@@ -17088,7 +17095,7 @@
         <f t="shared" si="66"/>
         <v>2830</v>
       </c>
-      <c r="D569">
+      <c r="D569" s="8">
         <f t="shared" si="67"/>
         <v>1447</v>
       </c>
@@ -17118,7 +17125,7 @@
         <f t="shared" si="66"/>
         <v>2835</v>
       </c>
-      <c r="D570">
+      <c r="D570" s="8">
         <f t="shared" si="67"/>
         <v>1444</v>
       </c>
@@ -17148,7 +17155,7 @@
         <f t="shared" si="66"/>
         <v>2840</v>
       </c>
-      <c r="D571">
+      <c r="D571" s="8">
         <f t="shared" si="67"/>
         <v>1442</v>
       </c>
@@ -17178,7 +17185,7 @@
         <f t="shared" si="66"/>
         <v>2845</v>
       </c>
-      <c r="D572">
+      <c r="D572" s="8">
         <f t="shared" si="67"/>
         <v>1439</v>
       </c>
@@ -17208,7 +17215,7 @@
         <f t="shared" si="66"/>
         <v>2850</v>
       </c>
-      <c r="D573">
+      <c r="D573" s="8">
         <f t="shared" si="67"/>
         <v>1437</v>
       </c>
@@ -17238,7 +17245,7 @@
         <f t="shared" si="66"/>
         <v>2855</v>
       </c>
-      <c r="D574">
+      <c r="D574" s="8">
         <f t="shared" si="67"/>
         <v>1434</v>
       </c>
@@ -17268,7 +17275,7 @@
         <f t="shared" si="66"/>
         <v>2860</v>
       </c>
-      <c r="D575">
+      <c r="D575" s="8">
         <f t="shared" si="67"/>
         <v>1432</v>
       </c>
@@ -17298,7 +17305,7 @@
         <f t="shared" si="66"/>
         <v>2865</v>
       </c>
-      <c r="D576">
+      <c r="D576" s="8">
         <f t="shared" si="67"/>
         <v>1429</v>
       </c>
@@ -17328,7 +17335,7 @@
         <f t="shared" si="66"/>
         <v>2870</v>
       </c>
-      <c r="D577">
+      <c r="D577" s="8">
         <f t="shared" si="67"/>
         <v>1427</v>
       </c>
@@ -17358,7 +17365,7 @@
         <f t="shared" si="66"/>
         <v>2875</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="8">
         <f t="shared" si="67"/>
         <v>1424</v>
       </c>
@@ -17388,7 +17395,7 @@
         <f t="shared" ref="C579:C603" si="71">TRUNC(B579/$B$1,0)</f>
         <v>2880</v>
       </c>
-      <c r="D579">
+      <c r="D579" s="8">
         <f t="shared" ref="D579:D603" si="72">TRUNC($B$5/C579,0)</f>
         <v>1422</v>
       </c>
@@ -17418,7 +17425,7 @@
         <f t="shared" si="71"/>
         <v>2885</v>
       </c>
-      <c r="D580">
+      <c r="D580" s="8">
         <f t="shared" si="72"/>
         <v>1419</v>
       </c>
@@ -17448,7 +17455,7 @@
         <f t="shared" si="71"/>
         <v>2890</v>
       </c>
-      <c r="D581">
+      <c r="D581" s="8">
         <f t="shared" si="72"/>
         <v>1417</v>
       </c>
@@ -17478,7 +17485,7 @@
         <f t="shared" si="71"/>
         <v>2895</v>
       </c>
-      <c r="D582">
+      <c r="D582" s="8">
         <f t="shared" si="72"/>
         <v>1414</v>
       </c>
@@ -17508,7 +17515,7 @@
         <f t="shared" si="71"/>
         <v>2900</v>
       </c>
-      <c r="D583">
+      <c r="D583" s="8">
         <f t="shared" si="72"/>
         <v>1412</v>
       </c>
@@ -17538,7 +17545,7 @@
         <f t="shared" si="71"/>
         <v>2905</v>
       </c>
-      <c r="D584">
+      <c r="D584" s="8">
         <f t="shared" si="72"/>
         <v>1409</v>
       </c>
@@ -17568,7 +17575,7 @@
         <f t="shared" si="71"/>
         <v>2910</v>
       </c>
-      <c r="D585">
+      <c r="D585" s="8">
         <f t="shared" si="72"/>
         <v>1407</v>
       </c>
@@ -17598,7 +17605,7 @@
         <f t="shared" si="71"/>
         <v>2915</v>
       </c>
-      <c r="D586">
+      <c r="D586" s="8">
         <f t="shared" si="72"/>
         <v>1405</v>
       </c>
@@ -17628,7 +17635,7 @@
         <f t="shared" si="71"/>
         <v>2920</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="8">
         <f t="shared" si="72"/>
         <v>1402</v>
       </c>
@@ -17658,7 +17665,7 @@
         <f t="shared" si="71"/>
         <v>2925</v>
       </c>
-      <c r="D588">
+      <c r="D588" s="8">
         <f t="shared" si="72"/>
         <v>1400</v>
       </c>
@@ -17688,7 +17695,7 @@
         <f t="shared" si="71"/>
         <v>2930</v>
       </c>
-      <c r="D589">
+      <c r="D589" s="8">
         <f t="shared" si="72"/>
         <v>1397</v>
       </c>
@@ -17718,7 +17725,7 @@
         <f t="shared" si="71"/>
         <v>2935</v>
       </c>
-      <c r="D590">
+      <c r="D590" s="8">
         <f t="shared" si="72"/>
         <v>1395</v>
       </c>
@@ -17748,7 +17755,7 @@
         <f t="shared" si="71"/>
         <v>2940</v>
       </c>
-      <c r="D591">
+      <c r="D591" s="8">
         <f t="shared" si="72"/>
         <v>1393</v>
       </c>
@@ -17778,7 +17785,7 @@
         <f t="shared" si="71"/>
         <v>2945</v>
       </c>
-      <c r="D592">
+      <c r="D592" s="8">
         <f t="shared" si="72"/>
         <v>1390</v>
       </c>
@@ -17808,7 +17815,7 @@
         <f t="shared" si="71"/>
         <v>2950</v>
       </c>
-      <c r="D593">
+      <c r="D593" s="8">
         <f t="shared" si="72"/>
         <v>1388</v>
       </c>
@@ -17838,7 +17845,7 @@
         <f t="shared" si="71"/>
         <v>2955</v>
       </c>
-      <c r="D594">
+      <c r="D594" s="8">
         <f t="shared" si="72"/>
         <v>1386</v>
       </c>
@@ -17868,7 +17875,7 @@
         <f t="shared" si="71"/>
         <v>2960</v>
       </c>
-      <c r="D595">
+      <c r="D595" s="8">
         <f t="shared" si="72"/>
         <v>1383</v>
       </c>
@@ -17898,7 +17905,7 @@
         <f t="shared" si="71"/>
         <v>2965</v>
       </c>
-      <c r="D596">
+      <c r="D596" s="8">
         <f t="shared" si="72"/>
         <v>1381</v>
       </c>
@@ -17928,7 +17935,7 @@
         <f t="shared" si="71"/>
         <v>2970</v>
       </c>
-      <c r="D597">
+      <c r="D597" s="8">
         <f t="shared" si="72"/>
         <v>1379</v>
       </c>
@@ -17958,7 +17965,7 @@
         <f t="shared" si="71"/>
         <v>2975</v>
       </c>
-      <c r="D598">
+      <c r="D598" s="8">
         <f t="shared" si="72"/>
         <v>1376</v>
       </c>
@@ -17988,7 +17995,7 @@
         <f t="shared" si="71"/>
         <v>2980</v>
       </c>
-      <c r="D599">
+      <c r="D599" s="8">
         <f t="shared" si="72"/>
         <v>1374</v>
       </c>
@@ -18018,7 +18025,7 @@
         <f t="shared" si="71"/>
         <v>2985</v>
       </c>
-      <c r="D600">
+      <c r="D600" s="8">
         <f t="shared" si="72"/>
         <v>1372</v>
       </c>
@@ -18048,7 +18055,7 @@
         <f t="shared" si="71"/>
         <v>2990</v>
       </c>
-      <c r="D601">
+      <c r="D601" s="8">
         <f t="shared" si="72"/>
         <v>1369</v>
       </c>
@@ -18078,7 +18085,7 @@
         <f t="shared" si="71"/>
         <v>2995</v>
       </c>
-      <c r="D602">
+      <c r="D602" s="8">
         <f t="shared" si="72"/>
         <v>1367</v>
       </c>
@@ -18108,7 +18115,7 @@
         <f t="shared" si="71"/>
         <v>3000</v>
       </c>
-      <c r="D603">
+      <c r="D603" s="8">
         <f t="shared" si="72"/>
         <v>1365</v>
       </c>
